--- a/시장분석용_정보/시장분석용_4889036000.xlsx
+++ b/시장분석용_정보/시장분석용_4889036000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="106">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,109 +160,160 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
-    <t>202001 6119010629</t>
-  </si>
-  <si>
-    <t>202002 6119010629</t>
-  </si>
-  <si>
-    <t>202003 6119010629</t>
-  </si>
-  <si>
-    <t>202004 6119010629</t>
-  </si>
-  <si>
-    <t>202005 6119010629</t>
-  </si>
-  <si>
-    <t>202006 6119010629</t>
-  </si>
-  <si>
-    <t>202006 6119026626</t>
-  </si>
-  <si>
-    <t>202007 6119010629</t>
-  </si>
-  <si>
-    <t>202008 6119010629</t>
-  </si>
-  <si>
-    <t>202009 6119010629</t>
-  </si>
-  <si>
-    <t>202009 6119026626</t>
-  </si>
-  <si>
-    <t>202010 6119010629</t>
-  </si>
-  <si>
-    <t>202011 6119010629</t>
-  </si>
-  <si>
-    <t>202012 6119010629</t>
-  </si>
-  <si>
-    <t>202101 6119010629</t>
-  </si>
-  <si>
-    <t>202102 6119010629</t>
-  </si>
-  <si>
-    <t>202103 6119010629</t>
-  </si>
-  <si>
-    <t>202104 6119010629</t>
-  </si>
-  <si>
-    <t>202105 6119010629</t>
-  </si>
-  <si>
-    <t>202106 6119010629</t>
-  </si>
-  <si>
-    <t>202106 6119026626</t>
-  </si>
-  <si>
-    <t>202107 6119010629</t>
-  </si>
-  <si>
-    <t>202108 6119010629</t>
-  </si>
-  <si>
-    <t>202108 6119026626</t>
-  </si>
-  <si>
-    <t>202109 6119010629</t>
-  </si>
-  <si>
-    <t>202109 6119026626</t>
-  </si>
-  <si>
-    <t>202110 6119010629</t>
-  </si>
-  <si>
-    <t>202111 6119010629</t>
-  </si>
-  <si>
-    <t>202112 6119010629</t>
-  </si>
-  <si>
-    <t>202201 6119010629</t>
-  </si>
-  <si>
-    <t>202202 6119010629</t>
-  </si>
-  <si>
-    <t>202202 6119026626</t>
-  </si>
-  <si>
-    <t>202203 6119010629</t>
-  </si>
-  <si>
-    <t>202204 6119010629</t>
-  </si>
-  <si>
-    <t>202205 6119010629</t>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>6119010629 202001</t>
+  </si>
+  <si>
+    <t>6119010629 202002</t>
+  </si>
+  <si>
+    <t>6119010629 202003</t>
+  </si>
+  <si>
+    <t>6119010629 202004</t>
+  </si>
+  <si>
+    <t>6119010629 202005</t>
+  </si>
+  <si>
+    <t>6119010629 202006</t>
+  </si>
+  <si>
+    <t>6119026626 202006</t>
+  </si>
+  <si>
+    <t>6119010629 202007</t>
+  </si>
+  <si>
+    <t>6119010629 202008</t>
+  </si>
+  <si>
+    <t>6119010629 202009</t>
+  </si>
+  <si>
+    <t>6119026626 202009</t>
+  </si>
+  <si>
+    <t>6119010629 202010</t>
+  </si>
+  <si>
+    <t>6119010629 202011</t>
+  </si>
+  <si>
+    <t>6119010629 202012</t>
+  </si>
+  <si>
+    <t>6119010629 202101</t>
+  </si>
+  <si>
+    <t>6119010629 202102</t>
+  </si>
+  <si>
+    <t>6119010629 202103</t>
+  </si>
+  <si>
+    <t>6119010629 202104</t>
+  </si>
+  <si>
+    <t>6119010629 202105</t>
+  </si>
+  <si>
+    <t>6119010629 202106</t>
+  </si>
+  <si>
+    <t>6119026626 202106</t>
+  </si>
+  <si>
+    <t>6119010629 202107</t>
+  </si>
+  <si>
+    <t>6119010629 202108</t>
+  </si>
+  <si>
+    <t>6119026626 202108</t>
+  </si>
+  <si>
+    <t>6119010629 202109</t>
+  </si>
+  <si>
+    <t>6119026626 202109</t>
+  </si>
+  <si>
+    <t>6119010629 202110</t>
+  </si>
+  <si>
+    <t>6119010629 202111</t>
+  </si>
+  <si>
+    <t>6119010629 202112</t>
+  </si>
+  <si>
+    <t>6119010629 202201</t>
+  </si>
+  <si>
+    <t>6119010629 202202</t>
+  </si>
+  <si>
+    <t>6119026626 202202</t>
+  </si>
+  <si>
+    <t>6119010629 202203</t>
+  </si>
+  <si>
+    <t>6119010629 202204</t>
+  </si>
+  <si>
+    <t>6119010629 202205</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkMzgxMTkxIzIxIyQxIyQ1IyQ5MiQ0NjEwMDIjNjEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM4MSMkMSMkNCMkNzIkMzgxOTYxIzIxIyQxIyQ5IyQ4MiQzNjEyMjIjNjEjJDEjJDAjJDgz</t>
+  </si>
+  <si>
+    <t>경상남도</t>
   </si>
   <si>
     <t>동부의원</t>
@@ -223,16 +322,10 @@
     <t>초계치과의원</t>
   </si>
   <si>
-    <t>경상남도 합천군 초계면 초계리 24-14번지</t>
-  </si>
-  <si>
-    <t>경상남도 합천군 초계면 초계2길 6</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkMzgxMTkxIzIxIyQxIyQ1IyQ5MiQ0NjEwMDIjNjEjJDEjJDgjJDgz</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMSMkNCMkNzIkMzgxOTYxIzIxIyQxIyQ5IyQ4MiQzNjEyMjIjNjEjJDEjJDAjJDgz</t>
+    <t>경상남도 합천군 초계면 초계중앙로 54 ()</t>
+  </si>
+  <si>
+    <t>경상남도 합천군 초계면 초계2길 6 (초계면)</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -596,13 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,43 +792,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>1459</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>37294220</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>6119010629</v>
       </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J2">
+        <v>4889036000</v>
+      </c>
+      <c r="K2">
         <v>33.3939393939394</v>
       </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2">
-        <v>4889036000</v>
+      <c r="L2" t="s">
+        <v>104</v>
       </c>
       <c r="M2">
         <v>1175006</v>
@@ -747,96 +930,186 @@
         <v>20627</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>89.33</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>10.67</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.68</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>3.61</v>
+      </c>
+      <c r="V2">
+        <v>2.82</v>
+      </c>
+      <c r="W2">
+        <v>68.22</v>
+      </c>
+      <c r="X2">
+        <v>10.67</v>
+      </c>
+      <c r="Y2">
+        <v>14.1</v>
+      </c>
+      <c r="Z2">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>2.12</v>
       </c>
-      <c r="S2">
+      <c r="AI2">
         <v>66.77</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
         <v>27.59</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <v>3.53</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>68.97</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>28.25</v>
       </c>
-      <c r="AE2">
+      <c r="AU2">
         <v>2.12</v>
       </c>
-      <c r="AF2">
+      <c r="AV2">
         <v>0.66</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>2.12</v>
+      </c>
+      <c r="BA2">
+        <v>0.66</v>
+      </c>
+      <c r="BB2">
+        <v>94.36</v>
+      </c>
+      <c r="BC2">
+        <v>2.86</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>2.78</v>
+      </c>
+      <c r="BH2">
+        <v>2.78</v>
+      </c>
+      <c r="BI2">
+        <v>29.62</v>
+      </c>
+      <c r="BJ2">
+        <v>14.3</v>
+      </c>
+      <c r="BK2">
+        <v>28.6</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>22999</v>
+        <v>3250</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>37294220</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>6119010629</v>
       </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J3">
+        <v>4889036000</v>
+      </c>
+      <c r="K3">
         <v>33.3939393939394</v>
       </c>
-      <c r="K3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3">
-        <v>4889036000</v>
+      <c r="L3" t="s">
+        <v>104</v>
       </c>
       <c r="M3">
         <v>439485</v>
@@ -848,96 +1121,186 @@
         <v>4280</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>73.36</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>26.64</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>3.97</v>
+      </c>
+      <c r="T3">
+        <v>36.45</v>
+      </c>
+      <c r="U3">
+        <v>8.06</v>
+      </c>
+      <c r="V3">
+        <v>7.59</v>
+      </c>
+      <c r="W3">
+        <v>17.29</v>
+      </c>
+      <c r="X3">
+        <v>26.64</v>
+      </c>
+      <c r="Y3">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>20.56</v>
+      </c>
+      <c r="AA3">
+        <v>10.4</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>3.74</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>32.01</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
         <v>1.75</v>
       </c>
-      <c r="W3">
+      <c r="AM3">
         <v>15.54</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
         <v>46.96</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>37.97</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>31.78</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>19.98</v>
       </c>
-      <c r="AF3">
+      <c r="AV3">
         <v>6.31</v>
       </c>
-      <c r="AG3">
+      <c r="AW3">
         <v>3.97</v>
       </c>
+      <c r="AX3">
+        <v>7.01</v>
+      </c>
+      <c r="AY3">
+        <v>3.97</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>10.05</v>
+      </c>
+      <c r="BB3">
+        <v>37.15</v>
+      </c>
+      <c r="BC3">
+        <v>41.82</v>
+      </c>
+      <c r="BD3">
+        <v>5.26</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>5.26</v>
+      </c>
+      <c r="BH3">
+        <v>44.86</v>
+      </c>
+      <c r="BI3">
+        <v>46.61</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>30.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>44457</v>
+        <v>6023</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>37294220</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>6119010629</v>
       </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J4">
+        <v>4889036000</v>
+      </c>
+      <c r="K4">
         <v>33.3939393939394</v>
       </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4">
-        <v>4889036000</v>
+      <c r="L4" t="s">
+        <v>104</v>
       </c>
       <c r="M4">
         <v>153032</v>
@@ -949,96 +1312,186 @@
         <v>3433</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>66.02</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>33.98</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>26.54</v>
       </c>
       <c r="T4">
+        <v>4.85</v>
+      </c>
+      <c r="U4">
+        <v>15.86</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>18.77</v>
+      </c>
+      <c r="X4">
+        <v>33.98</v>
+      </c>
+      <c r="Y4">
+        <v>65.7</v>
+      </c>
+      <c r="Z4">
+        <v>23.3</v>
+      </c>
+      <c r="AA4">
+        <v>11</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>53.07</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>7.77</v>
       </c>
-      <c r="Y4">
+      <c r="AO4">
         <v>39.16</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>37.54</v>
       </c>
-      <c r="AD4">
+      <c r="AT4">
         <v>15.53</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>39.16</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>7.77</v>
       </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>60.84</v>
+      </c>
+      <c r="BC4">
+        <v>39.16</v>
+      </c>
+      <c r="BD4">
+        <v>37.54</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>37.54</v>
+      </c>
+      <c r="BH4">
+        <v>37.54</v>
+      </c>
+      <c r="BI4">
+        <v>37.54</v>
+      </c>
+      <c r="BJ4">
+        <v>75</v>
+      </c>
+      <c r="BK4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>65830</v>
+        <v>8788</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>37294220</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>6119010629</v>
       </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J5">
+        <v>4889036000</v>
+      </c>
+      <c r="K5">
         <v>33.3939393939394</v>
       </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5">
-        <v>4889036000</v>
+      <c r="L5" t="s">
+        <v>104</v>
       </c>
       <c r="M5">
         <v>109001</v>
@@ -1050,7 +1503,7 @@
         <v>3057</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1059,16 +1512,16 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>17.76</v>
+        <v>33.64</v>
       </c>
       <c r="T5">
-        <v>54.67</v>
+        <v>29.91</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="V5">
-        <v>4.67</v>
+        <v>15.89</v>
       </c>
       <c r="W5">
         <v>15.89</v>
@@ -1077,69 +1530,159 @@
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>15.89</v>
+      </c>
+      <c r="Z5">
+        <v>50.47</v>
+      </c>
+      <c r="AA5">
+        <v>33.64</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>17.76</v>
+      </c>
+      <c r="AJ5">
+        <v>54.67</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>4.67</v>
+      </c>
+      <c r="AM5">
+        <v>15.89</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>7.01</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>66.36</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>17.76</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>15.89</v>
       </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>15.89</v>
+      </c>
+      <c r="AZ5">
+        <v>4.67</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>72.43000000000001</v>
+      </c>
+      <c r="BC5">
+        <v>7.01</v>
+      </c>
+      <c r="BD5">
+        <v>54.67</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>72.43000000000001</v>
+      </c>
+      <c r="BH5">
+        <v>72.43000000000001</v>
+      </c>
+      <c r="BI5">
+        <v>84.11</v>
+      </c>
+      <c r="BJ5">
+        <v>60</v>
+      </c>
+      <c r="BK5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>87313</v>
+        <v>11560</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>37294220</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>6119010629</v>
       </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J6">
+        <v>4889036000</v>
+      </c>
+      <c r="K6">
         <v>33.3939393939394</v>
       </c>
-      <c r="K6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6">
-        <v>4889036000</v>
+      <c r="L6" t="s">
+        <v>104</v>
       </c>
       <c r="M6">
         <v>427993</v>
@@ -1151,96 +1694,186 @@
         <v>12983</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>17.72</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>82.28</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>4.88</v>
-      </c>
-      <c r="S6">
-        <v>7.19</v>
       </c>
       <c r="T6">
         <v>5.39</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>76.89</v>
+      </c>
+      <c r="Y6">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>24.9</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>4.88</v>
+      </c>
+      <c r="AI6">
+        <v>7.19</v>
+      </c>
+      <c r="AJ6">
+        <v>5.39</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>12.84</v>
       </c>
-      <c r="W6">
+      <c r="AM6">
         <v>69.7</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
         <v>64.56999999999999</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>12.58</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>22.85</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>12.32</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>64.56999999999999</v>
+      </c>
+      <c r="BA6">
+        <v>17.72</v>
+      </c>
+      <c r="BB6">
+        <v>5.39</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>5.39</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>5.39</v>
+      </c>
+      <c r="BH6">
+        <v>79.97</v>
+      </c>
+      <c r="BI6">
+        <v>92.81</v>
+      </c>
+      <c r="BJ6">
+        <v>16.7</v>
+      </c>
+      <c r="BK6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>109002</v>
+        <v>14329</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7">
         <v>202006</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>37294220</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>6119010629</v>
       </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J7">
+        <v>4889036000</v>
+      </c>
+      <c r="K7">
         <v>33.3939393939394</v>
       </c>
-      <c r="K7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7">
-        <v>4889036000</v>
+      <c r="L7" t="s">
+        <v>104</v>
       </c>
       <c r="M7">
         <v>42964</v>
@@ -1252,7 +1885,7 @@
         <v>2800</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1261,87 +1894,177 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>19.05</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>40.48</v>
       </c>
-      <c r="T7">
+      <c r="V7">
+        <v>40.48</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>59.52</v>
+      </c>
+      <c r="Z7">
+        <v>40.48</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>40.48</v>
+      </c>
+      <c r="AJ7">
         <v>19.05</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
         <v>40.48</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
         <v>59.52</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
         <v>40.48</v>
       </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>40.48</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>40.48</v>
+      </c>
+      <c r="BC7">
+        <v>19.05</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>40.48</v>
+      </c>
+      <c r="BH7">
+        <v>40.48</v>
+      </c>
+      <c r="BI7">
+        <v>59.52</v>
+      </c>
+      <c r="BJ7">
+        <v>33.3</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>110636</v>
+        <v>16175</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8">
         <v>202006</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>48011415</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>6119026626</v>
       </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J8">
+        <v>4889036000</v>
+      </c>
+      <c r="K8">
         <v>27.27272727272727</v>
       </c>
-      <c r="K8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8">
-        <v>4889036000</v>
+      <c r="L8" t="s">
+        <v>105</v>
       </c>
       <c r="M8">
         <v>547793</v>
@@ -1353,7 +2076,7 @@
         <v>53550</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1362,87 +2085,177 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>6.63</v>
+      </c>
+      <c r="T8">
+        <v>93.37</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
         <v>100</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>100</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>100</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>100</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>100</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>100</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>130708</v>
+        <v>17108</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9">
         <v>202007</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>37294220</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>6119010629</v>
       </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J9">
+        <v>4889036000</v>
+      </c>
+      <c r="K9">
         <v>33.3939393939394</v>
       </c>
-      <c r="K9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9">
-        <v>4889036000</v>
+      <c r="L9" t="s">
+        <v>104</v>
       </c>
       <c r="M9">
         <v>228828</v>
@@ -1454,96 +2267,186 @@
         <v>3964</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>79.36</v>
       </c>
       <c r="Q9">
-        <v>13.3</v>
+        <v>20.64</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>22.25</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>23.39</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>12.16</v>
       </c>
       <c r="V9">
+        <v>36.93</v>
+      </c>
+      <c r="W9">
+        <v>30.28</v>
+      </c>
+      <c r="X9">
+        <v>20.64</v>
+      </c>
+      <c r="Y9">
+        <v>40.6</v>
+      </c>
+      <c r="Z9">
+        <v>33.26</v>
+      </c>
+      <c r="AA9">
+        <v>26.15</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>13.3</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>22.25</v>
+      </c>
+      <c r="AJ9">
+        <v>23.39</v>
+      </c>
+      <c r="AK9">
+        <v>12.16</v>
+      </c>
+      <c r="AL9">
         <v>2.29</v>
       </c>
-      <c r="W9">
+      <c r="AM9">
         <v>7.8</v>
       </c>
-      <c r="X9">
+      <c r="AN9">
         <v>11.01</v>
       </c>
-      <c r="Y9">
+      <c r="AO9">
         <v>7.8</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>35.55</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>39.91</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>16.74</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>7.8</v>
       </c>
+      <c r="AX9">
+        <v>12.16</v>
+      </c>
+      <c r="AY9">
+        <v>11.47</v>
+      </c>
+      <c r="AZ9">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="BA9">
+        <v>2.29</v>
+      </c>
+      <c r="BB9">
+        <v>56.65</v>
+      </c>
+      <c r="BC9">
+        <v>7.8</v>
+      </c>
+      <c r="BD9">
+        <v>14.45</v>
+      </c>
+      <c r="BE9">
+        <v>12.16</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>17.43</v>
+      </c>
+      <c r="BH9">
+        <v>40.83</v>
+      </c>
+      <c r="BI9">
+        <v>43.12</v>
+      </c>
+      <c r="BJ9">
+        <v>30</v>
+      </c>
+      <c r="BK9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>152436</v>
+        <v>19883</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
         <v>202008</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>37294220</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>6119010629</v>
       </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J10">
+        <v>4889036000</v>
+      </c>
+      <c r="K10">
         <v>33.3939393939394</v>
       </c>
-      <c r="K10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10">
-        <v>4889036000</v>
+      <c r="L10" t="s">
+        <v>104</v>
       </c>
       <c r="M10">
         <v>347220</v>
@@ -1555,7 +2458,7 @@
         <v>7544</v>
       </c>
       <c r="P10">
-        <v>5.6</v>
+        <v>70.25</v>
       </c>
       <c r="Q10">
         <v>29.75</v>
@@ -1564,87 +2467,177 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>7.07</v>
+      </c>
+      <c r="T10">
+        <v>40.06</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>12.22</v>
+      </c>
+      <c r="W10">
+        <v>10.9</v>
+      </c>
+      <c r="X10">
+        <v>29.75</v>
+      </c>
+      <c r="Y10">
+        <v>76.73</v>
+      </c>
+      <c r="Z10">
+        <v>17.67</v>
+      </c>
+      <c r="AA10">
+        <v>5.6</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>5.6</v>
+      </c>
+      <c r="AG10">
+        <v>29.75</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <v>40.35</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>12.22</v>
       </c>
-      <c r="U10">
+      <c r="AK10">
         <v>7.07</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>5.01</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>60.24</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>29.75</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>5.01</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
         <v>5.01</v>
       </c>
+      <c r="AX10">
+        <v>12.67</v>
+      </c>
+      <c r="AY10">
+        <v>5.01</v>
+      </c>
+      <c r="AZ10">
+        <v>29.75</v>
+      </c>
+      <c r="BA10">
+        <v>5.01</v>
+      </c>
+      <c r="BB10">
+        <v>47.57</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>47.57</v>
+      </c>
+      <c r="BE10">
+        <v>5.6</v>
+      </c>
+      <c r="BF10">
+        <v>7.07</v>
+      </c>
+      <c r="BG10">
+        <v>82.33</v>
+      </c>
+      <c r="BH10">
+        <v>82.33</v>
+      </c>
+      <c r="BI10">
+        <v>82.33</v>
+      </c>
+      <c r="BJ10">
+        <v>28.6</v>
+      </c>
+      <c r="BK10">
+        <v>28.6</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>174143</v>
+        <v>22662</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11">
         <v>202009</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>37294220</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>6119010629</v>
       </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J11">
+        <v>4889036000</v>
+      </c>
+      <c r="K11">
         <v>33.3939393939394</v>
       </c>
-      <c r="K11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11">
-        <v>4889036000</v>
+      <c r="L11" t="s">
+        <v>104</v>
       </c>
       <c r="M11">
         <v>562945</v>
@@ -1656,96 +2649,186 @@
         <v>10580</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>88.75</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="R11">
+        <v>5.58</v>
+      </c>
+      <c r="S11">
+        <v>3.21</v>
+      </c>
+      <c r="T11">
+        <v>6.05</v>
+      </c>
+      <c r="U11">
+        <v>78.45</v>
+      </c>
+      <c r="V11">
+        <v>3.5</v>
+      </c>
+      <c r="W11">
+        <v>3.21</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>50.19</v>
+      </c>
+      <c r="Z11">
+        <v>41.49</v>
+      </c>
+      <c r="AA11">
+        <v>8.32</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
         <v>3.59</v>
       </c>
-      <c r="S11">
+      <c r="AI11">
         <v>12.1</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>34.88</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>37.81</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>11.63</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>38.09</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>9.17</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>14.93</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>37.81</v>
       </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>41.4</v>
+      </c>
+      <c r="BB11">
+        <v>21.17</v>
+      </c>
+      <c r="BC11">
+        <v>37.43</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>44.61</v>
+      </c>
+      <c r="BH11">
+        <v>48.11</v>
+      </c>
+      <c r="BI11">
+        <v>48.11</v>
+      </c>
+      <c r="BJ11">
+        <v>22.2</v>
+      </c>
+      <c r="BK11">
+        <v>11.1</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>175772</v>
+        <v>24497</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12">
         <v>202009</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>48011415</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>6119026626</v>
       </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J12">
+        <v>4889036000</v>
+      </c>
+      <c r="K12">
         <v>27.27272727272727</v>
       </c>
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12">
-        <v>4889036000</v>
+      <c r="L12" t="s">
+        <v>105</v>
       </c>
       <c r="M12">
         <v>611728</v>
@@ -1757,7 +2840,7 @@
         <v>39900</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1766,29 +2849,29 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>83.54000000000001</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>16.46</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>95.41</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="Z12">
         <v>4.59</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
       <c r="AA12">
         <v>0</v>
       </c>
@@ -1796,57 +2879,147 @@
         <v>0</v>
       </c>
       <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>95.41</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>4.59</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>100</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>4.59</v>
+      </c>
+      <c r="BB12">
+        <v>95.41</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>95.41</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>4.59</v>
+      </c>
+      <c r="BI12">
+        <v>100</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>195879</v>
+        <v>25460</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13">
         <v>202010</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2020</v>
       </c>
-      <c r="E13">
-        <v>37294220</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>6119010629</v>
       </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J13">
+        <v>4889036000</v>
+      </c>
+      <c r="K13">
         <v>33.3939393939394</v>
       </c>
-      <c r="K13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13">
-        <v>4889036000</v>
+      <c r="L13" t="s">
+        <v>104</v>
       </c>
       <c r="M13">
         <v>105001</v>
@@ -1858,96 +3031,186 @@
         <v>3333</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
+        <v>45.5</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>24.5</v>
+      </c>
+      <c r="V13">
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>45.5</v>
+      </c>
+      <c r="Z13">
+        <v>54.5</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <v>38</v>
       </c>
-      <c r="T13">
+      <c r="AJ13">
         <v>44.5</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>7.5</v>
       </c>
-      <c r="Y13">
+      <c r="AO13">
         <v>10</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
         <v>47</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>45.5</v>
       </c>
-      <c r="AF13">
+      <c r="AV13">
         <v>7.5</v>
       </c>
-      <c r="AG13">
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>24.5</v>
+      </c>
+      <c r="BB13">
+        <v>65.5</v>
+      </c>
+      <c r="BC13">
+        <v>10</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>72.5</v>
+      </c>
+      <c r="BH13">
+        <v>72.5</v>
+      </c>
+      <c r="BI13">
+        <v>72.5</v>
+      </c>
+      <c r="BJ13">
+        <v>33.3</v>
+      </c>
+      <c r="BK13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>217621</v>
+        <v>28252</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14">
         <v>202011</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2020</v>
       </c>
-      <c r="E14">
-        <v>37294220</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>6119010629</v>
       </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J14">
+        <v>4889036000</v>
+      </c>
+      <c r="K14">
         <v>33.3939393939394</v>
       </c>
-      <c r="K14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14">
-        <v>4889036000</v>
+      <c r="L14" t="s">
+        <v>104</v>
       </c>
       <c r="M14">
         <v>187004</v>
@@ -1959,96 +3222,186 @@
         <v>4033</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>86.78</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>13.22</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>13.22</v>
       </c>
       <c r="S14">
+        <v>37.19</v>
+      </c>
+      <c r="T14">
+        <v>30.85</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="W14">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>60.88</v>
+      </c>
+      <c r="AA14">
         <v>29.75</v>
       </c>
-      <c r="T14">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>29.75</v>
+      </c>
+      <c r="AJ14">
         <v>25.34</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
         <v>29.75</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
         <v>15.15</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>12.12</v>
       </c>
-      <c r="AD14">
+      <c r="AT14">
         <v>44.63</v>
       </c>
-      <c r="AE14">
+      <c r="AU14">
         <v>24.52</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>18.73</v>
       </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>11.02</v>
+      </c>
+      <c r="AZ14">
+        <v>18.73</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>55.1</v>
+      </c>
+      <c r="BC14">
+        <v>15.15</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>29.75</v>
+      </c>
+      <c r="BH14">
+        <v>52.89</v>
+      </c>
+      <c r="BI14">
+        <v>52.89</v>
+      </c>
+      <c r="BJ14">
+        <v>62.5</v>
+      </c>
+      <c r="BK14">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>239432</v>
+        <v>31047</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15">
         <v>202012</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2020</v>
       </c>
-      <c r="E15">
-        <v>37294220</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>6119010629</v>
       </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J15">
+        <v>4889036000</v>
+      </c>
+      <c r="K15">
         <v>33.3939393939394</v>
       </c>
-      <c r="K15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15">
-        <v>4889036000</v>
+      <c r="L15" t="s">
+        <v>104</v>
       </c>
       <c r="M15">
         <v>521497</v>
@@ -2060,7 +3413,7 @@
         <v>7746</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2069,87 +3422,177 @@
         <v>0</v>
       </c>
       <c r="S15">
+        <v>13.51</v>
+      </c>
+      <c r="T15">
+        <v>1.79</v>
+      </c>
+      <c r="U15">
+        <v>10.72</v>
+      </c>
+      <c r="V15">
+        <v>5.76</v>
+      </c>
+      <c r="W15">
+        <v>68.22</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>7.35</v>
+      </c>
+      <c r="Z15">
+        <v>22.05</v>
+      </c>
+      <c r="AA15">
+        <v>70.61</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
         <v>18.87</v>
       </c>
-      <c r="T15">
+      <c r="AJ15">
         <v>9.140000000000001</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>6.26</v>
       </c>
-      <c r="W15">
+      <c r="AM15">
         <v>14.5</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>51.24</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
         <v>82.42</v>
       </c>
-      <c r="AE15">
+      <c r="AU15">
         <v>9.630000000000001</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
         <v>7.94</v>
       </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>14.2</v>
+      </c>
+      <c r="BA15">
+        <v>18.07</v>
+      </c>
+      <c r="BB15">
+        <v>67.73</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>3.38</v>
+      </c>
+      <c r="BH15">
+        <v>25.42</v>
+      </c>
+      <c r="BI15">
+        <v>25.42</v>
+      </c>
+      <c r="BJ15">
+        <v>44.4</v>
+      </c>
+      <c r="BK15">
+        <v>33.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>261261</v>
+        <v>33843</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16">
         <v>202101</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="E16">
-        <v>37294220</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>6119010629</v>
       </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J16">
+        <v>4889036000</v>
+      </c>
+      <c r="K16">
         <v>33.3939393939394</v>
       </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16">
-        <v>4889036000</v>
+      <c r="L16" t="s">
+        <v>104</v>
       </c>
       <c r="M16">
         <v>58366</v>
@@ -2161,16 +3604,16 @@
         <v>2875</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>30.43</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>43.48</v>
@@ -2179,78 +3622,168 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>43.48</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="Y16">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="Z16">
+        <v>30.43</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>30.43</v>
+      </c>
+      <c r="AJ16">
+        <v>43.48</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>26.09</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
         <v>56.52</v>
       </c>
-      <c r="AE16">
+      <c r="AU16">
         <v>43.48</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>73.91</v>
+      </c>
+      <c r="BC16">
+        <v>26.09</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>43.48</v>
+      </c>
+      <c r="BH16">
+        <v>43.48</v>
+      </c>
+      <c r="BI16">
+        <v>43.48</v>
+      </c>
+      <c r="BJ16">
+        <v>75</v>
+      </c>
+      <c r="BK16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>283095</v>
+        <v>36638</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17">
         <v>202102</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2021</v>
       </c>
-      <c r="E17">
-        <v>37294220</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>6119010629</v>
       </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J17">
+        <v>4889036000</v>
+      </c>
+      <c r="K17">
         <v>33.3939393939394</v>
       </c>
-      <c r="K17" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17">
-        <v>4889036000</v>
+      <c r="L17" t="s">
+        <v>104</v>
       </c>
       <c r="M17">
         <v>106301</v>
@@ -2262,7 +3795,7 @@
         <v>4200</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2271,87 +3804,177 @@
         <v>0</v>
       </c>
       <c r="S17">
+        <v>26.67</v>
+      </c>
+      <c r="T17">
+        <v>25.71</v>
+      </c>
+      <c r="U17">
+        <v>23.81</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>23.81</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>32.86</v>
+      </c>
+      <c r="Z17">
+        <v>43.33</v>
+      </c>
+      <c r="AA17">
+        <v>23.81</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>47.62</v>
       </c>
-      <c r="T17">
+      <c r="AJ17">
         <v>45.24</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
         <v>7.14</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>32.86</v>
       </c>
-      <c r="AD17">
+      <c r="AT17">
         <v>43.33</v>
       </c>
-      <c r="AE17">
+      <c r="AU17">
         <v>23.81</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>23.81</v>
+      </c>
+      <c r="BB17">
+        <v>69.05</v>
+      </c>
+      <c r="BC17">
+        <v>7.14</v>
+      </c>
+      <c r="BD17">
+        <v>25.71</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>73.33</v>
+      </c>
+      <c r="BH17">
+        <v>73.33</v>
+      </c>
+      <c r="BI17">
+        <v>80.48</v>
+      </c>
+      <c r="BJ17">
+        <v>20</v>
+      </c>
+      <c r="BK17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>304906</v>
+        <v>39434</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18">
         <v>202103</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>37294220</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>6119010629</v>
       </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J18">
+        <v>4889036000</v>
+      </c>
+      <c r="K18">
         <v>33.3939393939394</v>
       </c>
-      <c r="K18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18">
-        <v>4889036000</v>
+      <c r="L18" t="s">
+        <v>104</v>
       </c>
       <c r="M18">
         <v>210486</v>
@@ -2363,7 +3986,7 @@
         <v>6933</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2375,84 +3998,174 @@
         <v>8.41</v>
       </c>
       <c r="T18">
+        <v>57.93</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>33.65</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>21.63</v>
+      </c>
+      <c r="Z18">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="AA18">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>8.41</v>
+      </c>
+      <c r="AJ18">
         <v>66.34999999999999</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
         <v>13.22</v>
       </c>
-      <c r="Y18">
+      <c r="AO18">
         <v>12.02</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>57.93</v>
       </c>
-      <c r="AD18">
+      <c r="AT18">
         <v>28.85</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
         <v>13.22</v>
       </c>
-      <c r="AG18">
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>13.22</v>
+      </c>
+      <c r="BB18">
+        <v>26.68</v>
+      </c>
+      <c r="BC18">
+        <v>60.1</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>31.49</v>
+      </c>
+      <c r="BH18">
+        <v>79.56999999999999</v>
+      </c>
+      <c r="BI18">
+        <v>79.56999999999999</v>
+      </c>
+      <c r="BJ18">
+        <v>50</v>
+      </c>
+      <c r="BK18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>326862</v>
+        <v>42237</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19">
         <v>202104</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2021</v>
       </c>
-      <c r="E19">
-        <v>37294220</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>6119010629</v>
       </c>
-      <c r="G19" t="s">
-        <v>67</v>
-      </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J19">
+        <v>4889036000</v>
+      </c>
+      <c r="K19">
         <v>33.3939393939394</v>
       </c>
-      <c r="K19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19">
-        <v>4889036000</v>
+      <c r="L19" t="s">
+        <v>104</v>
       </c>
       <c r="M19">
         <v>277502</v>
@@ -2464,96 +4177,186 @@
         <v>5989</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>92.02</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>7.98</v>
       </c>
       <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>48.98</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>7.61</v>
+      </c>
+      <c r="V19">
+        <v>23.38</v>
+      </c>
+      <c r="W19">
+        <v>12.06</v>
+      </c>
+      <c r="X19">
+        <v>7.98</v>
+      </c>
+      <c r="Y19">
+        <v>16.88</v>
+      </c>
+      <c r="Z19">
+        <v>57.14</v>
+      </c>
+      <c r="AA19">
+        <v>25.97</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
         <v>9.09</v>
       </c>
-      <c r="S19">
+      <c r="AI19">
         <v>26.53</v>
       </c>
-      <c r="T19">
+      <c r="AJ19">
         <v>55.1</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
         <v>6.49</v>
       </c>
-      <c r="Y19">
+      <c r="AO19">
         <v>2.78</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>47.5</v>
       </c>
-      <c r="AD19">
+      <c r="AT19">
         <v>24.86</v>
       </c>
-      <c r="AE19">
+      <c r="AU19">
         <v>27.64</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>9.09</v>
+      </c>
+      <c r="BB19">
+        <v>48.24</v>
+      </c>
+      <c r="BC19">
+        <v>42.67</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>36.92</v>
+      </c>
+      <c r="BH19">
+        <v>92.39</v>
+      </c>
+      <c r="BI19">
+        <v>92.39</v>
+      </c>
+      <c r="BJ19">
+        <v>62.5</v>
+      </c>
+      <c r="BK19">
+        <v>12.5</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>348867</v>
+        <v>45051</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20">
         <v>202105</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="E20">
-        <v>37294220</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>6119010629</v>
       </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J20">
+        <v>4889036000</v>
+      </c>
+      <c r="K20">
         <v>33.3939393939394</v>
       </c>
-      <c r="K20" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20">
-        <v>4889036000</v>
+      <c r="L20" t="s">
+        <v>104</v>
       </c>
       <c r="M20">
         <v>608630</v>
@@ -2565,96 +4368,186 @@
         <v>8586</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>9.32</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
+        <v>8.99</v>
+      </c>
+      <c r="T20">
+        <v>22.05</v>
+      </c>
+      <c r="U20">
+        <v>46.84</v>
+      </c>
+      <c r="V20">
+        <v>9.9</v>
+      </c>
+      <c r="W20">
+        <v>2.91</v>
+      </c>
+      <c r="X20">
+        <v>9.32</v>
+      </c>
+      <c r="Y20">
+        <v>53.91</v>
+      </c>
+      <c r="Z20">
+        <v>15.31</v>
+      </c>
+      <c r="AA20">
+        <v>30.78</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
         <v>22.46</v>
       </c>
-      <c r="T20">
+      <c r="AJ20">
         <v>21.05</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
         <v>5.07</v>
       </c>
-      <c r="X20">
+      <c r="AN20">
         <v>5.82</v>
       </c>
-      <c r="Y20">
+      <c r="AO20">
         <v>45.59</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>65.39</v>
       </c>
-      <c r="AD20">
+      <c r="AT20">
         <v>5.49</v>
       </c>
-      <c r="AE20">
+      <c r="AU20">
         <v>23.29</v>
       </c>
-      <c r="AF20">
+      <c r="AV20">
         <v>5.82</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>10.9</v>
+      </c>
+      <c r="BB20">
+        <v>22.46</v>
+      </c>
+      <c r="BC20">
+        <v>66.64</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>24.04</v>
+      </c>
+      <c r="BH20">
+        <v>91.76000000000001</v>
+      </c>
+      <c r="BI20">
+        <v>96.84</v>
+      </c>
+      <c r="BJ20">
+        <v>50</v>
+      </c>
+      <c r="BK20">
+        <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>370901</v>
+        <v>47865</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21">
         <v>202106</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="E21">
-        <v>37294220</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>6119010629</v>
       </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J21">
+        <v>4889036000</v>
+      </c>
+      <c r="K21">
         <v>33.3939393939394</v>
       </c>
-      <c r="K21" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21">
-        <v>4889036000</v>
+      <c r="L21" t="s">
+        <v>104</v>
       </c>
       <c r="M21">
         <v>622738</v>
@@ -2666,96 +4559,186 @@
         <v>6828</v>
       </c>
       <c r="P21">
+        <v>87.55</v>
+      </c>
+      <c r="Q21">
+        <v>12.45</v>
+      </c>
+      <c r="R21">
+        <v>4.96</v>
+      </c>
+      <c r="S21">
+        <v>2.85</v>
+      </c>
+      <c r="T21">
+        <v>22.13</v>
+      </c>
+      <c r="U21">
+        <v>17.49</v>
+      </c>
+      <c r="V21">
+        <v>10.82</v>
+      </c>
+      <c r="W21">
+        <v>34.26</v>
+      </c>
+      <c r="X21">
+        <v>7.49</v>
+      </c>
+      <c r="Y21">
+        <v>37.67</v>
+      </c>
+      <c r="Z21">
+        <v>40.28</v>
+      </c>
+      <c r="AA21">
+        <v>22.05</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
         <v>1.22</v>
       </c>
-      <c r="Q21">
+      <c r="AG21">
         <v>6.51</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>23.43</v>
       </c>
-      <c r="T21">
+      <c r="AJ21">
         <v>35.88</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
         <v>3.17</v>
       </c>
-      <c r="X21">
+      <c r="AN21">
         <v>7.81</v>
       </c>
-      <c r="Y21">
+      <c r="AO21">
         <v>21.97</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>44.18</v>
       </c>
-      <c r="AD21">
+      <c r="AT21">
         <v>26.36</v>
       </c>
-      <c r="AE21">
+      <c r="AU21">
         <v>23.43</v>
       </c>
-      <c r="AF21">
+      <c r="AV21">
         <v>2.85</v>
       </c>
-      <c r="AG21">
+      <c r="AW21">
         <v>3.17</v>
       </c>
+      <c r="AX21">
+        <v>1.22</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>9.68</v>
+      </c>
+      <c r="BA21">
+        <v>11.8</v>
+      </c>
+      <c r="BB21">
+        <v>42.31</v>
+      </c>
+      <c r="BC21">
+        <v>34.99</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>1.22</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>33.28</v>
+      </c>
+      <c r="BH21">
+        <v>60.46</v>
+      </c>
+      <c r="BI21">
+        <v>61.68</v>
+      </c>
+      <c r="BJ21">
+        <v>28.6</v>
+      </c>
+      <c r="BK21">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>372511</v>
+        <v>49668</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22">
         <v>202106</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2021</v>
       </c>
-      <c r="E22">
-        <v>48011415</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>6119026626</v>
       </c>
-      <c r="G22" t="s">
-        <v>68</v>
-      </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J22">
+        <v>4889036000</v>
+      </c>
+      <c r="K22">
         <v>27.27272727272727</v>
       </c>
-      <c r="K22" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22">
-        <v>4889036000</v>
+      <c r="L22" t="s">
+        <v>105</v>
       </c>
       <c r="M22">
         <v>78093</v>
@@ -2767,7 +4750,7 @@
         <v>7750</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2785,78 +4768,168 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>52.9</v>
+      </c>
+      <c r="AA22">
+        <v>47.1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>100</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
         <v>100</v>
       </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>100</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>100</v>
+      </c>
+      <c r="BH22">
+        <v>100</v>
+      </c>
+      <c r="BI22">
+        <v>100</v>
+      </c>
+      <c r="BJ22">
+        <v>100</v>
+      </c>
+      <c r="BK22">
+        <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>393040</v>
+        <v>50688</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23">
         <v>202107</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="E23">
-        <v>37294220</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>6119010629</v>
       </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J23">
+        <v>4889036000</v>
+      </c>
+      <c r="K23">
         <v>33.3939393939394</v>
       </c>
-      <c r="K23" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23">
-        <v>4889036000</v>
+      <c r="L23" t="s">
+        <v>104</v>
       </c>
       <c r="M23">
         <v>764806</v>
@@ -2868,96 +4941,186 @@
         <v>7983</v>
       </c>
       <c r="P23">
+        <v>58.52</v>
+      </c>
+      <c r="Q23">
+        <v>41.48</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10.79</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>4.59</v>
+      </c>
+      <c r="V23">
+        <v>21.5</v>
+      </c>
+      <c r="W23">
+        <v>21.64</v>
+      </c>
+      <c r="X23">
+        <v>41.48</v>
+      </c>
+      <c r="Y23">
+        <v>49.76</v>
+      </c>
+      <c r="Z23">
+        <v>41.48</v>
+      </c>
+      <c r="AA23">
+        <v>8.77</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>35.84</v>
       </c>
-      <c r="Q23">
+      <c r="AG23">
         <v>13.57</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
         <v>5.92</v>
       </c>
-      <c r="T23">
+      <c r="AJ23">
         <v>27.7</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
         <v>3.69</v>
       </c>
-      <c r="X23">
+      <c r="AN23">
         <v>3.48</v>
       </c>
-      <c r="Y23">
+      <c r="AO23">
         <v>9.81</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>70.77</v>
       </c>
-      <c r="AD23">
+      <c r="AT23">
         <v>15.45</v>
       </c>
-      <c r="AE23">
+      <c r="AU23">
         <v>7.17</v>
       </c>
-      <c r="AF23">
+      <c r="AV23">
         <v>6.61</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>35.84</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>13.57</v>
+      </c>
+      <c r="BA23">
+        <v>7.17</v>
+      </c>
+      <c r="BB23">
+        <v>21.78</v>
+      </c>
+      <c r="BC23">
+        <v>21.64</v>
+      </c>
+      <c r="BD23">
+        <v>7.03</v>
+      </c>
+      <c r="BE23">
+        <v>35.84</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>34.31</v>
+      </c>
+      <c r="BH23">
+        <v>91.23</v>
+      </c>
+      <c r="BI23">
+        <v>92.34999999999999</v>
+      </c>
+      <c r="BJ23">
+        <v>40</v>
+      </c>
+      <c r="BK23">
+        <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>415148</v>
+        <v>53507</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24">
         <v>202108</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="E24">
-        <v>37294220</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>6119010629</v>
       </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J24">
+        <v>4889036000</v>
+      </c>
+      <c r="K24">
         <v>33.3939393939394</v>
       </c>
-      <c r="K24" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24">
-        <v>4889036000</v>
+      <c r="L24" t="s">
+        <v>104</v>
       </c>
       <c r="M24">
         <v>993897</v>
@@ -2969,96 +5132,186 @@
         <v>15192</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>93.37</v>
       </c>
       <c r="Q24">
+        <v>6.63</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>3.24</v>
+      </c>
+      <c r="T24">
+        <v>2.58</v>
+      </c>
+      <c r="U24">
+        <v>13.72</v>
+      </c>
+      <c r="V24">
+        <v>27.59</v>
+      </c>
+      <c r="W24">
+        <v>46.23</v>
+      </c>
+      <c r="X24">
+        <v>6.63</v>
+      </c>
+      <c r="Y24">
+        <v>48.15</v>
+      </c>
+      <c r="Z24">
+        <v>24.05</v>
+      </c>
+      <c r="AA24">
+        <v>27.8</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>31.85</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
         <v>26.38</v>
       </c>
-      <c r="T24">
+      <c r="AJ24">
         <v>12.66</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>2.28</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
         <v>26.08</v>
       </c>
-      <c r="Y24">
+      <c r="AO24">
         <v>0.76</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>18.99</v>
       </c>
-      <c r="AD24">
+      <c r="AT24">
         <v>52.86</v>
       </c>
-      <c r="AE24">
+      <c r="AU24">
         <v>2.08</v>
       </c>
-      <c r="AF24">
+      <c r="AV24">
         <v>25.32</v>
       </c>
-      <c r="AG24">
+      <c r="AW24">
         <v>0.76</v>
       </c>
+      <c r="AX24">
+        <v>2.28</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>4.81</v>
+      </c>
+      <c r="BA24">
+        <v>55.59</v>
+      </c>
+      <c r="BB24">
+        <v>25.67</v>
+      </c>
+      <c r="BC24">
+        <v>11.65</v>
+      </c>
+      <c r="BD24">
+        <v>1.77</v>
+      </c>
+      <c r="BE24">
+        <v>2.28</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>33.92</v>
+      </c>
+      <c r="BH24">
+        <v>49.16</v>
+      </c>
+      <c r="BI24">
+        <v>49.92</v>
+      </c>
+      <c r="BJ24">
+        <v>50</v>
+      </c>
+      <c r="BK24">
+        <v>8.300000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>416758</v>
+        <v>55307</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25">
         <v>202108</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2021</v>
       </c>
-      <c r="E25">
-        <v>48011415</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>6119026626</v>
       </c>
-      <c r="G25" t="s">
-        <v>68</v>
-      </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J25">
+        <v>4889036000</v>
+      </c>
+      <c r="K25">
         <v>27.27272727272727</v>
       </c>
-      <c r="K25" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25">
-        <v>4889036000</v>
+      <c r="L25" t="s">
+        <v>105</v>
       </c>
       <c r="M25">
         <v>14382410</v>
@@ -3070,7 +5323,7 @@
         <v>573920</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3079,87 +5332,177 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>94.37</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>5.23</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0.3</v>
+      </c>
+      <c r="Z25">
+        <v>5.51</v>
+      </c>
+      <c r="AA25">
+        <v>94.19</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
         <v>0.4</v>
       </c>
-      <c r="Y25">
+      <c r="AO25">
         <v>99.59999999999999</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>0.28</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
         <v>99.31999999999999</v>
       </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
         <v>0.4</v>
       </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>99.31999999999999</v>
+      </c>
+      <c r="BB25">
+        <v>0.4</v>
+      </c>
+      <c r="BC25">
+        <v>0.28</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>99.31999999999999</v>
+      </c>
+      <c r="BH25">
+        <v>99.31999999999999</v>
+      </c>
+      <c r="BI25">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="BJ25">
+        <v>33.3</v>
+      </c>
+      <c r="BK25">
+        <v>66.7</v>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
-        <v>437306</v>
+        <v>56336</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26">
         <v>202109</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>2021</v>
       </c>
-      <c r="E26">
-        <v>37294220</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>6119010629</v>
       </c>
-      <c r="G26" t="s">
-        <v>67</v>
-      </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J26">
+        <v>4889036000</v>
+      </c>
+      <c r="K26">
         <v>33.3939393939394</v>
       </c>
-      <c r="K26" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26">
-        <v>4889036000</v>
+      <c r="L26" t="s">
+        <v>104</v>
       </c>
       <c r="M26">
         <v>535179</v>
@@ -3171,96 +5514,186 @@
         <v>5572</v>
       </c>
       <c r="P26">
+        <v>82.65000000000001</v>
+      </c>
+      <c r="Q26">
+        <v>17.35</v>
+      </c>
+      <c r="R26">
+        <v>6.68</v>
+      </c>
+      <c r="S26">
+        <v>15.45</v>
+      </c>
+      <c r="T26">
+        <v>4.99</v>
+      </c>
+      <c r="U26">
+        <v>4.99</v>
+      </c>
+      <c r="V26">
+        <v>44.87</v>
+      </c>
+      <c r="W26">
+        <v>12.36</v>
+      </c>
+      <c r="X26">
+        <v>10.67</v>
+      </c>
+      <c r="Y26">
+        <v>57.53</v>
+      </c>
+      <c r="Z26">
+        <v>22.13</v>
+      </c>
+      <c r="AA26">
+        <v>20.34</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>1.5</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
         <v>11.47</v>
       </c>
-      <c r="T26">
+      <c r="AJ26">
         <v>29.91</v>
       </c>
-      <c r="U26">
+      <c r="AK26">
         <v>6.68</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
         <v>8.970000000000001</v>
       </c>
-      <c r="X26">
+      <c r="AN26">
         <v>4.89</v>
       </c>
-      <c r="Y26">
+      <c r="AO26">
         <v>36.59</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>22.93</v>
       </c>
-      <c r="AD26">
+      <c r="AT26">
         <v>60.72</v>
       </c>
-      <c r="AE26">
+      <c r="AU26">
         <v>16.35</v>
       </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>8.18</v>
+      </c>
+      <c r="AY26">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>27.12</v>
+      </c>
+      <c r="BB26">
+        <v>24.83</v>
+      </c>
+      <c r="BC26">
+        <v>30.91</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>1.5</v>
+      </c>
+      <c r="BF26">
+        <v>6.68</v>
+      </c>
+      <c r="BG26">
+        <v>25.32</v>
+      </c>
+      <c r="BH26">
+        <v>48.26</v>
+      </c>
+      <c r="BI26">
+        <v>54.94</v>
+      </c>
+      <c r="BJ26">
+        <v>36.4</v>
+      </c>
+      <c r="BK26">
+        <v>36.4</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
-        <v>438905</v>
+        <v>58124</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27">
         <v>202109</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>2021</v>
       </c>
-      <c r="E27">
-        <v>48011415</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>6119026626</v>
       </c>
-      <c r="G27" t="s">
-        <v>68</v>
-      </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J27">
+        <v>4889036000</v>
+      </c>
+      <c r="K27">
         <v>27.27272727272727</v>
       </c>
-      <c r="K27" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27">
-        <v>4889036000</v>
+      <c r="L27" t="s">
+        <v>105</v>
       </c>
       <c r="M27">
         <v>75286</v>
@@ -3272,7 +5705,7 @@
         <v>7100</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3290,78 +5723,168 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>30.99</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>100</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
         <v>69.01000000000001</v>
       </c>
-      <c r="Y27">
+      <c r="AO27">
         <v>30.99</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
         <v>30.99</v>
       </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
         <v>69.01000000000001</v>
       </c>
-      <c r="AG27">
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>30.99</v>
+      </c>
+      <c r="BB27">
+        <v>69.01000000000001</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
-        <v>459503</v>
+        <v>59163</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28">
         <v>202110</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>2021</v>
       </c>
-      <c r="E28">
-        <v>37294220</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>6119010629</v>
       </c>
-      <c r="G28" t="s">
-        <v>67</v>
-      </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J28">
+        <v>4889036000</v>
+      </c>
+      <c r="K28">
         <v>33.3939393939394</v>
       </c>
-      <c r="K28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28">
-        <v>4889036000</v>
+      <c r="L28" t="s">
+        <v>104</v>
       </c>
       <c r="M28">
         <v>1046880</v>
@@ -3373,96 +5896,186 @@
         <v>10695</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>96.95</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S28">
+        <v>7.38</v>
+      </c>
+      <c r="T28">
+        <v>2.02</v>
+      </c>
+      <c r="U28">
+        <v>63.53</v>
+      </c>
+      <c r="V28">
+        <v>10.14</v>
+      </c>
+      <c r="W28">
+        <v>13.88</v>
+      </c>
+      <c r="X28">
+        <v>1.53</v>
+      </c>
+      <c r="Y28">
+        <v>20.96</v>
+      </c>
+      <c r="Z28">
+        <v>46.06</v>
+      </c>
+      <c r="AA28">
+        <v>32.97</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
         <v>34.06</v>
       </c>
-      <c r="T28">
+      <c r="AJ28">
         <v>40.65</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
         <v>4.28</v>
       </c>
-      <c r="W28">
+      <c r="AM28">
         <v>2.02</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
         <v>19</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>12.3</v>
       </c>
-      <c r="AD28">
+      <c r="AT28">
         <v>50.25</v>
       </c>
-      <c r="AE28">
+      <c r="AU28">
         <v>37.45</v>
       </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>2.02</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>11.66</v>
+      </c>
+      <c r="BB28">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="BC28">
+        <v>20.47</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>36.91</v>
+      </c>
+      <c r="BH28">
+        <v>47.49</v>
+      </c>
+      <c r="BI28">
+        <v>50.39</v>
+      </c>
+      <c r="BJ28">
+        <v>54.5</v>
+      </c>
+      <c r="BK28">
+        <v>36.4</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
-        <v>481777</v>
+        <v>62001</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29">
         <v>202111</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>2021</v>
       </c>
-      <c r="E29">
-        <v>37294220</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>6119010629</v>
       </c>
-      <c r="G29" t="s">
-        <v>67</v>
-      </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J29">
+        <v>4889036000</v>
+      </c>
+      <c r="K29">
         <v>33.3939393939394</v>
       </c>
-      <c r="K29" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29">
-        <v>4889036000</v>
+      <c r="L29" t="s">
+        <v>104</v>
       </c>
       <c r="M29">
         <v>142890</v>
@@ -3474,40 +6087,40 @@
         <v>3843</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>81.78</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>18.22</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>36.8</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>18.59</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>18.22</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>44.98</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>18.22</v>
       </c>
       <c r="Y29">
         <v>63.2</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>13.01</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>23.79</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3516,54 +6129,144 @@
         <v>0</v>
       </c>
       <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>36.8</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>63.2</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
         <v>50.56</v>
       </c>
-      <c r="AE29">
+      <c r="AU29">
         <v>31.23</v>
       </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
         <v>18.22</v>
       </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>55.02</v>
+      </c>
+      <c r="BC29">
+        <v>44.98</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>55.02</v>
+      </c>
+      <c r="BH29">
+        <v>55.02</v>
+      </c>
+      <c r="BI29">
+        <v>55.02</v>
+      </c>
+      <c r="BJ29">
+        <v>60</v>
+      </c>
+      <c r="BK29">
+        <v>20</v>
+      </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
-        <v>504061</v>
+        <v>64829</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30">
         <v>202112</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2021</v>
       </c>
-      <c r="E30">
-        <v>37294220</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>6119010629</v>
       </c>
-      <c r="G30" t="s">
-        <v>67</v>
-      </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J30">
+        <v>4889036000</v>
+      </c>
+      <c r="K30">
         <v>33.3939393939394</v>
       </c>
-      <c r="K30" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30">
-        <v>4889036000</v>
+      <c r="L30" t="s">
+        <v>104</v>
       </c>
       <c r="M30">
         <v>1309771</v>
@@ -3575,96 +6278,186 @@
         <v>19377</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>13.82</v>
+      </c>
+      <c r="T30">
+        <v>52.12</v>
+      </c>
+      <c r="U30">
+        <v>4.88</v>
+      </c>
+      <c r="V30">
+        <v>27.19</v>
+      </c>
+      <c r="W30">
+        <v>1.98</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>6.19</v>
+      </c>
+      <c r="Z30">
+        <v>40.06</v>
+      </c>
+      <c r="AA30">
+        <v>53.75</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
         <v>1.95</v>
       </c>
-      <c r="R30">
+      <c r="AH30">
         <v>21.79</v>
       </c>
-      <c r="S30">
+      <c r="AI30">
         <v>33.9</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
         <v>21.99</v>
       </c>
-      <c r="X30">
+      <c r="AN30">
         <v>9.49</v>
       </c>
-      <c r="Y30">
+      <c r="AO30">
         <v>10.88</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
         <v>2.34</v>
       </c>
-      <c r="AD30">
+      <c r="AT30">
         <v>86.22</v>
       </c>
-      <c r="AE30">
+      <c r="AU30">
         <v>9.49</v>
       </c>
-      <c r="AF30">
+      <c r="AV30">
         <v>1.95</v>
       </c>
-      <c r="AG30">
-        <v>0</v>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>23.74</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>35.45</v>
+      </c>
+      <c r="BB30">
+        <v>33.9</v>
+      </c>
+      <c r="BC30">
+        <v>6.91</v>
+      </c>
+      <c r="BD30">
+        <v>1.95</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>55.9</v>
+      </c>
+      <c r="BH30">
+        <v>55.9</v>
+      </c>
+      <c r="BI30">
+        <v>59.47</v>
+      </c>
+      <c r="BJ30">
+        <v>33.3</v>
+      </c>
+      <c r="BK30">
+        <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:63">
       <c r="A31" s="1">
-        <v>526382</v>
+        <v>67662</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31">
         <v>202201</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>2022</v>
       </c>
-      <c r="E31">
-        <v>37294220</v>
-      </c>
-      <c r="F31">
+      <c r="G31">
         <v>6119010629</v>
       </c>
-      <c r="G31" t="s">
-        <v>67</v>
-      </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J31">
+        <v>4889036000</v>
+      </c>
+      <c r="K31">
         <v>33.3939393939394</v>
       </c>
-      <c r="K31" t="s">
-        <v>73</v>
-      </c>
-      <c r="L31">
-        <v>4889036000</v>
+      <c r="L31" t="s">
+        <v>104</v>
       </c>
       <c r="M31">
         <v>941768</v>
@@ -3676,96 +6469,186 @@
         <v>22775</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>43.03</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>56.97</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
-        <v>2.31</v>
+        <v>28.49</v>
       </c>
       <c r="T31">
-        <v>33.15</v>
+        <v>5.38</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>28.49</v>
+        <v>35.35</v>
       </c>
       <c r="W31">
         <v>2.31</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>28.49</v>
       </c>
       <c r="Y31">
+        <v>0.88</v>
+      </c>
+      <c r="Z31">
+        <v>87.93000000000001</v>
+      </c>
+      <c r="AA31">
+        <v>11.2</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>2.31</v>
+      </c>
+      <c r="AJ31">
+        <v>33.15</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>28.49</v>
+      </c>
+      <c r="AM31">
+        <v>2.31</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
         <v>33.75</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
         <v>61.64</v>
       </c>
-      <c r="AD31">
+      <c r="AT31">
         <v>7.57</v>
       </c>
-      <c r="AE31">
+      <c r="AU31">
         <v>2.31</v>
       </c>
-      <c r="AF31">
+      <c r="AV31">
         <v>28.49</v>
       </c>
-      <c r="AG31">
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>28.49</v>
+      </c>
+      <c r="AY31">
+        <v>2.31</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>35.46</v>
+      </c>
+      <c r="BC31">
+        <v>33.75</v>
+      </c>
+      <c r="BD31">
+        <v>33.15</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>28.49</v>
+      </c>
+      <c r="BG31">
+        <v>7.68</v>
+      </c>
+      <c r="BH31">
+        <v>67.12</v>
+      </c>
+      <c r="BI31">
+        <v>67.12</v>
+      </c>
+      <c r="BJ31">
+        <v>12.5</v>
+      </c>
+      <c r="BK31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:63">
       <c r="A32" s="1">
-        <v>548660</v>
+        <v>70493</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32">
         <v>202202</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>2022</v>
       </c>
-      <c r="E32">
-        <v>37294220</v>
-      </c>
-      <c r="F32">
+      <c r="G32">
         <v>6119010629</v>
       </c>
-      <c r="G32" t="s">
-        <v>67</v>
-      </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J32">
+        <v>4889036000</v>
+      </c>
+      <c r="K32">
         <v>33.3939393939394</v>
       </c>
-      <c r="K32" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32">
-        <v>4889036000</v>
+      <c r="L32" t="s">
+        <v>104</v>
       </c>
       <c r="M32">
         <v>579455</v>
@@ -3777,96 +6660,186 @@
         <v>13838</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>96.03</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>3.97</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>3.97</v>
+      </c>
+      <c r="U32">
+        <v>39.3</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>52.76</v>
+      </c>
+      <c r="X32">
+        <v>3.97</v>
+      </c>
+      <c r="Y32">
+        <v>62.06</v>
+      </c>
+      <c r="Z32">
+        <v>37.94</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
         <v>3.79</v>
       </c>
-      <c r="T32">
+      <c r="AJ32">
         <v>79.48999999999999</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
         <v>7.77</v>
       </c>
-      <c r="Y32">
+      <c r="AO32">
         <v>8.94</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
         <v>49.14</v>
       </c>
-      <c r="AD32">
+      <c r="AT32">
         <v>43.09</v>
       </c>
-      <c r="AE32">
+      <c r="AU32">
         <v>7.77</v>
       </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>8.94</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>7.77</v>
+      </c>
+      <c r="BB32">
+        <v>38.12</v>
+      </c>
+      <c r="BC32">
+        <v>45.17</v>
+      </c>
+      <c r="BD32">
+        <v>3.97</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>48.96</v>
+      </c>
+      <c r="BH32">
+        <v>96.20999999999999</v>
+      </c>
+      <c r="BI32">
+        <v>100</v>
+      </c>
+      <c r="BJ32">
+        <v>42.9</v>
+      </c>
+      <c r="BK32">
+        <v>14.3</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:63">
       <c r="A33" s="1">
-        <v>550256</v>
+        <v>72276</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33">
         <v>202202</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>2022</v>
       </c>
-      <c r="E33">
-        <v>48011415</v>
-      </c>
-      <c r="F33">
+      <c r="G33">
         <v>6119026626</v>
       </c>
-      <c r="G33" t="s">
-        <v>68</v>
-      </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J33">
+        <v>4889036000</v>
+      </c>
+      <c r="K33">
         <v>27.27272727272727</v>
       </c>
-      <c r="K33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33">
-        <v>4889036000</v>
+      <c r="L33" t="s">
+        <v>105</v>
       </c>
       <c r="M33">
         <v>148636</v>
@@ -3878,7 +6851,7 @@
         <v>14400</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3887,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3896,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3905,69 +6878,159 @@
         <v>0</v>
       </c>
       <c r="Y33">
+        <v>30.9</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
         <v>100</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
         <v>100</v>
       </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>100</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>100</v>
+      </c>
+      <c r="BI33">
+        <v>100</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:63">
       <c r="A34" s="1">
-        <v>570952</v>
+        <v>73337</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34">
         <v>202203</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>2022</v>
       </c>
-      <c r="E34">
-        <v>37294220</v>
-      </c>
-      <c r="F34">
+      <c r="G34">
         <v>6119010629</v>
       </c>
-      <c r="G34" t="s">
-        <v>67</v>
-      </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J34">
+        <v>4889036000</v>
+      </c>
+      <c r="K34">
         <v>33.3939393939394</v>
       </c>
-      <c r="K34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L34">
-        <v>4889036000</v>
+      <c r="L34" t="s">
+        <v>104</v>
       </c>
       <c r="M34">
         <v>1088721</v>
@@ -3979,96 +7042,186 @@
         <v>11424</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>23.34</v>
+      </c>
+      <c r="T34">
+        <v>12.69</v>
+      </c>
+      <c r="U34">
+        <v>24.38</v>
+      </c>
+      <c r="V34">
+        <v>34.77</v>
+      </c>
+      <c r="W34">
+        <v>4.81</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>12.94</v>
+      </c>
+      <c r="Z34">
+        <v>49.96</v>
+      </c>
+      <c r="AA34">
+        <v>37.1</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
         <v>29.23</v>
       </c>
-      <c r="R34">
+      <c r="AH34">
         <v>21.95</v>
       </c>
-      <c r="S34">
+      <c r="AI34">
         <v>4.81</v>
       </c>
-      <c r="T34">
+      <c r="AJ34">
         <v>1.95</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
         <v>17.02</v>
       </c>
-      <c r="X34">
+      <c r="AN34">
         <v>14.59</v>
       </c>
-      <c r="Y34">
+      <c r="AO34">
         <v>10.46</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
         <v>34.38</v>
       </c>
-      <c r="AE34">
+      <c r="AU34">
         <v>38.81</v>
       </c>
-      <c r="AF34">
+      <c r="AV34">
         <v>22.44</v>
       </c>
-      <c r="AG34">
+      <c r="AW34">
         <v>4.38</v>
       </c>
+      <c r="AX34">
+        <v>7.29</v>
+      </c>
+      <c r="AY34">
+        <v>11.77</v>
+      </c>
+      <c r="AZ34">
+        <v>1.95</v>
+      </c>
+      <c r="BA34">
+        <v>54.48</v>
+      </c>
+      <c r="BB34">
+        <v>23.78</v>
+      </c>
+      <c r="BC34">
+        <v>0.73</v>
+      </c>
+      <c r="BD34">
+        <v>1.95</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>31.07</v>
+      </c>
+      <c r="BH34">
+        <v>43.96</v>
+      </c>
+      <c r="BI34">
+        <v>43.96</v>
+      </c>
+      <c r="BJ34">
+        <v>30.8</v>
+      </c>
+      <c r="BK34">
+        <v>30.8</v>
+      </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:63">
       <c r="A35" s="1">
-        <v>593335</v>
+        <v>76182</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35">
         <v>202204</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>2022</v>
       </c>
-      <c r="E35">
-        <v>37294220</v>
-      </c>
-      <c r="F35">
+      <c r="G35">
         <v>6119010629</v>
       </c>
-      <c r="G35" t="s">
-        <v>67</v>
-      </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J35">
+        <v>4889036000</v>
+      </c>
+      <c r="K35">
         <v>33.3939393939394</v>
       </c>
-      <c r="K35" t="s">
-        <v>73</v>
-      </c>
-      <c r="L35">
-        <v>4889036000</v>
+      <c r="L35" t="s">
+        <v>104</v>
       </c>
       <c r="M35">
         <v>823599</v>
@@ -4080,96 +7233,186 @@
         <v>17744</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>88.92</v>
       </c>
       <c r="Q35">
+        <v>11.08</v>
+      </c>
+      <c r="R35">
+        <v>3.32</v>
+      </c>
+      <c r="S35">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="T35">
+        <v>5.51</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>3.13</v>
+      </c>
+      <c r="W35">
+        <v>2.63</v>
+      </c>
+      <c r="X35">
         <v>7.76</v>
       </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
+      <c r="Y35">
+        <v>45.71</v>
+      </c>
+      <c r="Z35">
+        <v>51.41</v>
+      </c>
+      <c r="AA35">
+        <v>2.88</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>7.76</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
         <v>2.63</v>
       </c>
-      <c r="T35">
+      <c r="AJ35">
         <v>51.22</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
         <v>2.88</v>
       </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
         <v>35.5</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
         <v>84.47</v>
       </c>
-      <c r="AD35">
+      <c r="AT35">
         <v>6.89</v>
       </c>
-      <c r="AE35">
+      <c r="AU35">
         <v>3.13</v>
       </c>
-      <c r="AF35">
+      <c r="AV35">
         <v>2.63</v>
       </c>
-      <c r="AG35">
+      <c r="AW35">
         <v>2.88</v>
       </c>
+      <c r="AX35">
+        <v>2.63</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>7.76</v>
+      </c>
+      <c r="BA35">
+        <v>2.88</v>
+      </c>
+      <c r="BB35">
+        <v>9.08</v>
+      </c>
+      <c r="BC35">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>58.3</v>
+      </c>
+      <c r="BH35">
+        <v>61.87</v>
+      </c>
+      <c r="BI35">
+        <v>93.8</v>
+      </c>
+      <c r="BJ35">
+        <v>44.4</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:63">
       <c r="A36" s="1">
-        <v>615737</v>
+        <v>79039</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36">
         <v>202205</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>2022</v>
       </c>
-      <c r="E36">
-        <v>37294220</v>
-      </c>
-      <c r="F36">
+      <c r="G36">
         <v>6119010629</v>
       </c>
-      <c r="G36" t="s">
-        <v>67</v>
-      </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J36">
+        <v>4889036000</v>
+      </c>
+      <c r="K36">
         <v>33.3939393939394</v>
       </c>
-      <c r="K36" t="s">
-        <v>73</v>
-      </c>
-      <c r="L36">
-        <v>4889036000</v>
+      <c r="L36" t="s">
+        <v>104</v>
       </c>
       <c r="M36">
         <v>417303</v>
@@ -4181,57 +7424,147 @@
         <v>10125</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>18.52</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>11.36</v>
+      </c>
+      <c r="V36">
+        <v>6.3</v>
+      </c>
+      <c r="W36">
+        <v>63.83</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>4.44</v>
+      </c>
+      <c r="Z36">
+        <v>74.44</v>
+      </c>
+      <c r="AA36">
+        <v>21.11</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
         <v>6.17</v>
       </c>
-      <c r="S36">
+      <c r="AI36">
         <v>9.630000000000001</v>
       </c>
-      <c r="T36">
+      <c r="AJ36">
         <v>68.27</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
         <v>15.93</v>
       </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
         <v>79.63</v>
       </c>
-      <c r="AE36">
+      <c r="AU36">
         <v>9.630000000000001</v>
       </c>
-      <c r="AF36">
+      <c r="AV36">
         <v>10.74</v>
       </c>
-      <c r="AG36">
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>5.19</v>
+      </c>
+      <c r="AZ36">
+        <v>4.44</v>
+      </c>
+      <c r="BA36">
+        <v>12.47</v>
+      </c>
+      <c r="BB36">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>19.26</v>
+      </c>
+      <c r="BH36">
+        <v>23.7</v>
+      </c>
+      <c r="BI36">
+        <v>23.7</v>
+      </c>
+      <c r="BJ36">
+        <v>37.5</v>
+      </c>
+      <c r="BK36">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4889036000.xlsx
+++ b/시장분석용_정보/시장분석용_4889036000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="40">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -539,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV36"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,64 +591,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>472</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -708,10 +612,10 @@
         <v>6119010629</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4889036000</v>
@@ -720,7 +624,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>1175006</v>
@@ -732,117 +636,69 @@
         <v>20627</v>
       </c>
       <c r="O2">
-        <v>89.33</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>10.67</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="R2">
-        <v>14.68</v>
+        <v>66.77</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>68.22</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>10.67</v>
+        <v>27.59</v>
       </c>
       <c r="X2">
-        <v>14.1</v>
+        <v>3.53</v>
       </c>
       <c r="Y2">
-        <v>82.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>68.97</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>28.25</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>2.12</v>
-      </c>
-      <c r="AH2">
-        <v>66.77</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>27.59</v>
-      </c>
-      <c r="AN2">
-        <v>3.53</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>68.97</v>
-      </c>
-      <c r="AS2">
-        <v>28.25</v>
-      </c>
-      <c r="AT2">
-        <v>2.12</v>
-      </c>
-      <c r="AU2">
-        <v>0.66</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>3250</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -854,10 +710,10 @@
         <v>6119010629</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>4889036000</v>
@@ -866,7 +722,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>439485</v>
@@ -878,117 +734,69 @@
         <v>4280</v>
       </c>
       <c r="O3">
-        <v>73.36</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>26.64</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>32.01</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1.75</v>
+      </c>
+      <c r="V3">
+        <v>15.54</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>46.96</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>37.97</v>
+      </c>
+      <c r="AC3">
+        <v>31.78</v>
+      </c>
+      <c r="AD3">
+        <v>19.98</v>
+      </c>
+      <c r="AE3">
+        <v>6.31</v>
+      </c>
+      <c r="AF3">
         <v>3.97</v>
       </c>
-      <c r="S3">
-        <v>36.45</v>
-      </c>
-      <c r="T3">
-        <v>8.06</v>
-      </c>
-      <c r="U3">
-        <v>7.59</v>
-      </c>
-      <c r="V3">
-        <v>17.29</v>
-      </c>
-      <c r="W3">
-        <v>26.64</v>
-      </c>
-      <c r="X3">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="Y3">
-        <v>20.56</v>
-      </c>
-      <c r="Z3">
-        <v>10.4</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>3.74</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>32.01</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>1.75</v>
-      </c>
-      <c r="AL3">
-        <v>15.54</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>46.96</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>37.97</v>
-      </c>
-      <c r="AS3">
-        <v>31.78</v>
-      </c>
-      <c r="AT3">
-        <v>19.98</v>
-      </c>
-      <c r="AU3">
-        <v>6.31</v>
-      </c>
-      <c r="AV3">
-        <v>3.97</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>6023</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -1000,10 +808,10 @@
         <v>6119010629</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>4889036000</v>
@@ -1012,7 +820,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>153032</v>
@@ -1024,117 +832,69 @@
         <v>3433</v>
       </c>
       <c r="O4">
-        <v>66.02</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>33.98</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>26.54</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>4.85</v>
+        <v>53.07</v>
       </c>
       <c r="T4">
-        <v>15.86</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>18.77</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>33.98</v>
+        <v>7.77</v>
       </c>
       <c r="X4">
-        <v>65.7</v>
+        <v>39.16</v>
       </c>
       <c r="Y4">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>37.54</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>15.53</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>39.16</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>53.07</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
         <v>7.77</v>
       </c>
-      <c r="AN4">
-        <v>39.16</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>37.54</v>
-      </c>
-      <c r="AS4">
-        <v>15.53</v>
-      </c>
-      <c r="AT4">
-        <v>39.16</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>7.77</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>8788</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1146,10 +906,10 @@
         <v>6119010629</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>4889036000</v>
@@ -1158,7 +918,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L5">
         <v>109001</v>
@@ -1170,7 +930,7 @@
         <v>3057</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1179,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>33.64</v>
+        <v>17.76</v>
       </c>
       <c r="S5">
-        <v>29.91</v>
+        <v>54.67</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>4.67</v>
-      </c>
-      <c r="U5">
-        <v>15.89</v>
       </c>
       <c r="V5">
         <v>15.89</v>
@@ -1197,90 +957,42 @@
         <v>0</v>
       </c>
       <c r="X5">
+        <v>7.01</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>66.36</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>17.76</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>15.89</v>
       </c>
-      <c r="Y5">
-        <v>50.47</v>
-      </c>
-      <c r="Z5">
-        <v>33.64</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>17.76</v>
-      </c>
-      <c r="AI5">
-        <v>54.67</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>4.67</v>
-      </c>
-      <c r="AL5">
-        <v>15.89</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>7.01</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>66.36</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>17.76</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>15.89</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>11560</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1292,10 +1004,10 @@
         <v>6119010629</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>4889036000</v>
@@ -1304,7 +1016,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>427993</v>
@@ -1316,37 +1028,37 @@
         <v>12983</v>
       </c>
       <c r="O6">
-        <v>17.72</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>82.28</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="R6">
-        <v>4.88</v>
+        <v>7.19</v>
       </c>
       <c r="S6">
         <v>5.39</v>
       </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>12.84</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
       <c r="V6">
-        <v>0</v>
+        <v>69.7</v>
       </c>
       <c r="W6">
-        <v>76.89</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>75.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>24.9</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1355,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>12.58</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>22.85</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1369,64 +1081,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>4.88</v>
-      </c>
-      <c r="AH6">
-        <v>7.19</v>
-      </c>
-      <c r="AI6">
-        <v>5.39</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>12.84</v>
-      </c>
-      <c r="AL6">
-        <v>69.7</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>12.58</v>
-      </c>
-      <c r="AS6">
-        <v>22.85</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>14329</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1438,10 +1102,10 @@
         <v>6119010629</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>4889036000</v>
@@ -1450,7 +1114,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L7">
         <v>42964</v>
@@ -1462,7 +1126,7 @@
         <v>2800</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1471,108 +1135,60 @@
         <v>0</v>
       </c>
       <c r="R7">
+        <v>40.48</v>
+      </c>
+      <c r="S7">
         <v>19.05</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>40.48</v>
       </c>
-      <c r="U7">
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>59.52</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>40.48</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>59.52</v>
-      </c>
-      <c r="Y7">
-        <v>40.48</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>40.48</v>
-      </c>
-      <c r="AI7">
-        <v>19.05</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>40.48</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>59.52</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>40.48</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>16175</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202006</v>
@@ -1584,10 +1200,10 @@
         <v>6119026626</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>4889036000</v>
@@ -1596,7 +1212,7 @@
         <v>27.27272727272727</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L8">
         <v>547793</v>
@@ -1608,19 +1224,19 @@
         <v>53550</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>100</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>6.63</v>
-      </c>
       <c r="S8">
-        <v>93.37</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1641,14 +1257,14 @@
         <v>0</v>
       </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>100</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
         <v>0</v>
       </c>
@@ -1661,64 +1277,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>100</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>100</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>17108</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202007</v>
@@ -1730,10 +1298,10 @@
         <v>6119010629</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>4889036000</v>
@@ -1742,7 +1310,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L9">
         <v>228828</v>
@@ -1754,117 +1322,69 @@
         <v>3964</v>
       </c>
       <c r="O9">
-        <v>79.36</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>20.64</v>
+        <v>13.3</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>22.25</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>23.39</v>
       </c>
       <c r="T9">
         <v>12.16</v>
       </c>
       <c r="U9">
-        <v>36.93</v>
+        <v>2.29</v>
       </c>
       <c r="V9">
-        <v>30.28</v>
+        <v>7.8</v>
       </c>
       <c r="W9">
-        <v>20.64</v>
+        <v>11.01</v>
       </c>
       <c r="X9">
-        <v>40.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y9">
-        <v>33.26</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>26.15</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>35.55</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>39.91</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>16.74</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>13.3</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>22.25</v>
-      </c>
-      <c r="AI9">
-        <v>23.39</v>
-      </c>
-      <c r="AJ9">
-        <v>12.16</v>
-      </c>
-      <c r="AK9">
-        <v>2.29</v>
-      </c>
-      <c r="AL9">
         <v>7.8</v>
       </c>
-      <c r="AM9">
-        <v>11.01</v>
-      </c>
-      <c r="AN9">
-        <v>7.8</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>35.55</v>
-      </c>
-      <c r="AS9">
-        <v>39.91</v>
-      </c>
-      <c r="AT9">
-        <v>16.74</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>7.8</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>19883</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202008</v>
@@ -1876,10 +1396,10 @@
         <v>6119010629</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>4889036000</v>
@@ -1888,7 +1408,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>347220</v>
@@ -1900,7 +1420,7 @@
         <v>7544</v>
       </c>
       <c r="O10">
-        <v>70.25</v>
+        <v>5.6</v>
       </c>
       <c r="P10">
         <v>29.75</v>
@@ -1909,108 +1429,60 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>40.35</v>
+      </c>
+      <c r="S10">
+        <v>12.22</v>
+      </c>
+      <c r="T10">
         <v>7.07</v>
       </c>
-      <c r="S10">
-        <v>40.06</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>10.9</v>
+        <v>5.01</v>
       </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>60.24</v>
+      </c>
+      <c r="AC10">
         <v>29.75</v>
       </c>
-      <c r="X10">
-        <v>76.73</v>
-      </c>
-      <c r="Y10">
-        <v>17.67</v>
-      </c>
-      <c r="Z10">
-        <v>5.6</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="AE10">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>29.75</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>40.35</v>
-      </c>
-      <c r="AI10">
-        <v>12.22</v>
-      </c>
-      <c r="AJ10">
-        <v>7.07</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
         <v>5.01</v>
       </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>60.24</v>
-      </c>
-      <c r="AS10">
-        <v>29.75</v>
-      </c>
-      <c r="AT10">
-        <v>5.01</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>5.01</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>22662</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202009</v>
@@ -2022,10 +1494,10 @@
         <v>6119010629</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>4889036000</v>
@@ -2034,7 +1506,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <v>562945</v>
@@ -2046,117 +1518,69 @@
         <v>10580</v>
       </c>
       <c r="O11">
-        <v>88.75</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>5.58</v>
+        <v>3.59</v>
       </c>
       <c r="R11">
-        <v>3.21</v>
+        <v>12.1</v>
       </c>
       <c r="S11">
-        <v>6.05</v>
+        <v>34.88</v>
       </c>
       <c r="T11">
-        <v>78.45</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>37.81</v>
       </c>
       <c r="X11">
-        <v>50.19</v>
+        <v>11.63</v>
       </c>
       <c r="Y11">
-        <v>41.49</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>8.32</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>38.09</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>9.17</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>14.93</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>3.59</v>
-      </c>
-      <c r="AH11">
-        <v>12.1</v>
-      </c>
-      <c r="AI11">
-        <v>34.88</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
         <v>37.81</v>
       </c>
-      <c r="AN11">
-        <v>11.63</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>38.09</v>
-      </c>
-      <c r="AS11">
-        <v>9.17</v>
-      </c>
-      <c r="AT11">
-        <v>14.93</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>37.81</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>24497</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202009</v>
@@ -2168,10 +1592,10 @@
         <v>6119026626</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>4889036000</v>
@@ -2180,7 +1604,7 @@
         <v>27.27272727272727</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L12">
         <v>611728</v>
@@ -2192,47 +1616,47 @@
         <v>39900</v>
       </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>95.41</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>4.59</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>100</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>83.54000000000001</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>16.46</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>95.41</v>
-      </c>
-      <c r="Y12">
-        <v>4.59</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
       <c r="AC12">
         <v>0</v>
       </c>
@@ -2245,64 +1669,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>95.41</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>4.59</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>100</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>25460</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202010</v>
@@ -2314,10 +1690,10 @@
         <v>6119010629</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>4889036000</v>
@@ -2326,7 +1702,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L13">
         <v>105001</v>
@@ -2338,117 +1714,69 @@
         <v>3333</v>
       </c>
       <c r="O13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>38</v>
+      </c>
+      <c r="S13">
+        <v>44.5</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>7.5</v>
+      </c>
+      <c r="X13">
         <v>10</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>47</v>
+      </c>
+      <c r="AD13">
         <v>45.5</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>24.5</v>
-      </c>
-      <c r="U13">
-        <v>20</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>10</v>
-      </c>
-      <c r="X13">
-        <v>45.5</v>
-      </c>
-      <c r="Y13">
-        <v>54.5</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
       <c r="AE13">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>38</v>
-      </c>
-      <c r="AI13">
-        <v>44.5</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>7.5</v>
-      </c>
-      <c r="AN13">
-        <v>10</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>47</v>
-      </c>
-      <c r="AT13">
-        <v>45.5</v>
-      </c>
-      <c r="AU13">
-        <v>7.5</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>28252</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202011</v>
@@ -2460,10 +1788,10 @@
         <v>6119010629</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>4889036000</v>
@@ -2472,7 +1800,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>187004</v>
@@ -2484,117 +1812,69 @@
         <v>4033</v>
       </c>
       <c r="O14">
-        <v>86.78</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>13.22</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.22</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>37.19</v>
+        <v>29.75</v>
       </c>
       <c r="S14">
-        <v>30.85</v>
+        <v>25.34</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>9.369999999999999</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>9.369999999999999</v>
+        <v>29.75</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>9.369999999999999</v>
+        <v>15.15</v>
       </c>
       <c r="Y14">
-        <v>60.88</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>29.75</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>12.12</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>44.63</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>24.52</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>29.75</v>
-      </c>
-      <c r="AI14">
-        <v>25.34</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>29.75</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>15.15</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>12.12</v>
-      </c>
-      <c r="AS14">
-        <v>44.63</v>
-      </c>
-      <c r="AT14">
-        <v>24.52</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
         <v>18.73</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>31047</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202012</v>
@@ -2606,10 +1886,10 @@
         <v>6119010629</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I15">
         <v>4889036000</v>
@@ -2618,7 +1898,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L15">
         <v>521497</v>
@@ -2630,7 +1910,7 @@
         <v>7746</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2639,31 +1919,31 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>13.51</v>
+        <v>18.87</v>
       </c>
       <c r="S15">
-        <v>1.79</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="T15">
-        <v>10.72</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>5.76</v>
+        <v>6.26</v>
       </c>
       <c r="V15">
-        <v>68.22</v>
+        <v>14.5</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>7.35</v>
+        <v>51.24</v>
       </c>
       <c r="Y15">
-        <v>22.05</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>70.61</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2672,75 +1952,27 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>82.42</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>18.87</v>
-      </c>
-      <c r="AI15">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>6.26</v>
-      </c>
-      <c r="AL15">
-        <v>14.5</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>51.24</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>82.42</v>
-      </c>
-      <c r="AT15">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
         <v>7.94</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>33843</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202101</v>
@@ -2752,10 +1984,10 @@
         <v>6119010629</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>4889036000</v>
@@ -2764,7 +1996,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L16">
         <v>58366</v>
@@ -2776,16 +2008,16 @@
         <v>2875</v>
       </c>
       <c r="O16">
-        <v>86.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.04</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>30.43</v>
       </c>
       <c r="S16">
         <v>43.48</v>
@@ -2794,99 +2026,51 @@
         <v>0</v>
       </c>
       <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>26.09</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>56.52</v>
+      </c>
+      <c r="AD16">
         <v>43.48</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>13.04</v>
-      </c>
-      <c r="X16">
-        <v>69.56999999999999</v>
-      </c>
-      <c r="Y16">
-        <v>30.43</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>30.43</v>
-      </c>
-      <c r="AI16">
-        <v>43.48</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>26.09</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>56.52</v>
-      </c>
-      <c r="AT16">
-        <v>43.48</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>36638</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202102</v>
@@ -2898,10 +2082,10 @@
         <v>6119010629</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I17">
         <v>4889036000</v>
@@ -2910,7 +2094,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L17">
         <v>106301</v>
@@ -2922,7 +2106,7 @@
         <v>4200</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2931,108 +2115,60 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>26.67</v>
+        <v>47.62</v>
       </c>
       <c r="S17">
-        <v>25.71</v>
+        <v>45.24</v>
       </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>7.14</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>32.86</v>
+      </c>
+      <c r="AC17">
+        <v>43.33</v>
+      </c>
+      <c r="AD17">
         <v>23.81</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>23.81</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>32.86</v>
-      </c>
-      <c r="Y17">
-        <v>43.33</v>
-      </c>
-      <c r="Z17">
-        <v>23.81</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>47.62</v>
-      </c>
-      <c r="AI17">
-        <v>45.24</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>7.14</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>32.86</v>
-      </c>
-      <c r="AS17">
-        <v>43.33</v>
-      </c>
-      <c r="AT17">
-        <v>23.81</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>39434</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202103</v>
@@ -3044,10 +2180,10 @@
         <v>6119010629</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>4889036000</v>
@@ -3056,7 +2192,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>210486</v>
@@ -3068,7 +2204,7 @@
         <v>6933</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3080,105 +2216,57 @@
         <v>8.41</v>
       </c>
       <c r="S18">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>13.22</v>
+      </c>
+      <c r="X18">
+        <v>12.02</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>57.93</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>33.65</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>21.63</v>
-      </c>
-      <c r="Y18">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="Z18">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
       <c r="AC18">
-        <v>0</v>
+        <v>28.85</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>13.22</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>8.41</v>
-      </c>
-      <c r="AI18">
-        <v>66.34999999999999</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>13.22</v>
-      </c>
-      <c r="AN18">
-        <v>12.02</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>57.93</v>
-      </c>
-      <c r="AS18">
-        <v>28.85</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>13.22</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>42237</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202104</v>
@@ -3190,10 +2278,10 @@
         <v>6119010629</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I19">
         <v>4889036000</v>
@@ -3202,7 +2290,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L19">
         <v>277502</v>
@@ -3214,52 +2302,52 @@
         <v>5989</v>
       </c>
       <c r="O19">
-        <v>92.02</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>7.98</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>9.09</v>
       </c>
       <c r="R19">
-        <v>48.98</v>
+        <v>26.53</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>55.1</v>
       </c>
       <c r="T19">
-        <v>7.61</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>23.38</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>12.06</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>7.98</v>
+        <v>6.49</v>
       </c>
       <c r="X19">
-        <v>16.88</v>
+        <v>2.78</v>
       </c>
       <c r="Y19">
-        <v>57.14</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>25.97</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>24.86</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>27.64</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3267,64 +2355,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>9.09</v>
-      </c>
-      <c r="AH19">
-        <v>26.53</v>
-      </c>
-      <c r="AI19">
-        <v>55.1</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>6.49</v>
-      </c>
-      <c r="AN19">
-        <v>2.78</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>47.5</v>
-      </c>
-      <c r="AS19">
-        <v>24.86</v>
-      </c>
-      <c r="AT19">
-        <v>27.64</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>45051</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202105</v>
@@ -3336,10 +2376,10 @@
         <v>6119010629</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I20">
         <v>4889036000</v>
@@ -3348,7 +2388,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L20">
         <v>608630</v>
@@ -3360,117 +2400,69 @@
         <v>8586</v>
       </c>
       <c r="O20">
-        <v>90.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>9.32</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>8.99</v>
+        <v>22.46</v>
       </c>
       <c r="S20">
-        <v>22.05</v>
+        <v>21.05</v>
       </c>
       <c r="T20">
-        <v>46.84</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>2.91</v>
+        <v>5.07</v>
       </c>
       <c r="W20">
-        <v>9.32</v>
+        <v>5.82</v>
       </c>
       <c r="X20">
-        <v>53.91</v>
+        <v>45.59</v>
       </c>
       <c r="Y20">
-        <v>15.31</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>30.78</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>65.39</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>23.29</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>22.46</v>
-      </c>
-      <c r="AI20">
-        <v>21.05</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>5.07</v>
-      </c>
-      <c r="AM20">
-        <v>5.82</v>
-      </c>
-      <c r="AN20">
-        <v>45.59</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>65.39</v>
-      </c>
-      <c r="AS20">
-        <v>5.49</v>
-      </c>
-      <c r="AT20">
-        <v>23.29</v>
-      </c>
-      <c r="AU20">
-        <v>5.82</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>47865</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202106</v>
@@ -3482,10 +2474,10 @@
         <v>6119010629</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>4889036000</v>
@@ -3494,7 +2486,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L21">
         <v>622738</v>
@@ -3506,117 +2498,69 @@
         <v>6828</v>
       </c>
       <c r="O21">
-        <v>87.55</v>
+        <v>1.22</v>
       </c>
       <c r="P21">
-        <v>12.45</v>
+        <v>6.51</v>
       </c>
       <c r="Q21">
-        <v>4.96</v>
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>23.43</v>
+      </c>
+      <c r="S21">
+        <v>35.88</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>3.17</v>
+      </c>
+      <c r="W21">
+        <v>7.81</v>
+      </c>
+      <c r="X21">
+        <v>21.97</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>44.18</v>
+      </c>
+      <c r="AC21">
+        <v>26.36</v>
+      </c>
+      <c r="AD21">
+        <v>23.43</v>
+      </c>
+      <c r="AE21">
         <v>2.85</v>
       </c>
-      <c r="S21">
-        <v>22.13</v>
-      </c>
-      <c r="T21">
-        <v>17.49</v>
-      </c>
-      <c r="U21">
-        <v>10.82</v>
-      </c>
-      <c r="V21">
-        <v>34.26</v>
-      </c>
-      <c r="W21">
-        <v>7.49</v>
-      </c>
-      <c r="X21">
-        <v>37.67</v>
-      </c>
-      <c r="Y21">
-        <v>40.28</v>
-      </c>
-      <c r="Z21">
-        <v>22.05</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>1.22</v>
-      </c>
       <c r="AF21">
-        <v>6.51</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>23.43</v>
-      </c>
-      <c r="AI21">
-        <v>35.88</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
         <v>3.17</v>
       </c>
-      <c r="AM21">
-        <v>7.81</v>
-      </c>
-      <c r="AN21">
-        <v>21.97</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>44.18</v>
-      </c>
-      <c r="AS21">
-        <v>26.36</v>
-      </c>
-      <c r="AT21">
-        <v>23.43</v>
-      </c>
-      <c r="AU21">
-        <v>2.85</v>
-      </c>
-      <c r="AV21">
-        <v>3.17</v>
-      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>49668</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202106</v>
@@ -3628,10 +2572,10 @@
         <v>6119026626</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>4889036000</v>
@@ -3640,7 +2584,7 @@
         <v>27.27272727272727</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L22">
         <v>78093</v>
@@ -3652,40 +2596,40 @@
         <v>7750</v>
       </c>
       <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>100</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>52.9</v>
-      </c>
-      <c r="V22">
-        <v>47.1</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
       <c r="Y22">
-        <v>52.9</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -3697,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3705,64 +2649,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>100</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>100</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>50688</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202107</v>
@@ -3774,10 +2670,10 @@
         <v>6119010629</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I23">
         <v>4889036000</v>
@@ -3786,7 +2682,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L23">
         <v>764806</v>
@@ -3798,117 +2694,69 @@
         <v>7983</v>
       </c>
       <c r="O23">
-        <v>58.52</v>
+        <v>35.84</v>
       </c>
       <c r="P23">
-        <v>41.48</v>
+        <v>13.57</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>10.79</v>
+        <v>5.92</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="T23">
-        <v>4.59</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>21.64</v>
+        <v>3.69</v>
       </c>
       <c r="W23">
-        <v>41.48</v>
+        <v>3.48</v>
       </c>
       <c r="X23">
-        <v>49.76</v>
+        <v>9.81</v>
       </c>
       <c r="Y23">
-        <v>41.48</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>8.77</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>70.77</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>15.45</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>7.17</v>
       </c>
       <c r="AE23">
-        <v>35.84</v>
+        <v>6.61</v>
       </c>
       <c r="AF23">
-        <v>13.57</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>5.92</v>
-      </c>
-      <c r="AI23">
-        <v>27.7</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>3.69</v>
-      </c>
-      <c r="AM23">
-        <v>3.48</v>
-      </c>
-      <c r="AN23">
-        <v>9.81</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>70.77</v>
-      </c>
-      <c r="AS23">
-        <v>15.45</v>
-      </c>
-      <c r="AT23">
-        <v>7.17</v>
-      </c>
-      <c r="AU23">
-        <v>6.61</v>
-      </c>
-      <c r="AV23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>53507</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202108</v>
@@ -3920,10 +2768,10 @@
         <v>6119010629</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I24">
         <v>4889036000</v>
@@ -3932,7 +2780,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>993897</v>
@@ -3944,117 +2792,69 @@
         <v>15192</v>
       </c>
       <c r="O24">
-        <v>93.37</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>6.63</v>
+        <v>31.85</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>3.24</v>
+        <v>26.38</v>
       </c>
       <c r="S24">
-        <v>2.58</v>
+        <v>12.66</v>
       </c>
       <c r="T24">
-        <v>13.72</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>27.59</v>
+        <v>2.28</v>
       </c>
       <c r="V24">
-        <v>46.23</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>6.63</v>
+        <v>26.08</v>
       </c>
       <c r="X24">
-        <v>48.15</v>
+        <v>0.76</v>
       </c>
       <c r="Y24">
-        <v>24.05</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>18.99</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>52.86</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>25.32</v>
       </c>
       <c r="AF24">
-        <v>31.85</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>26.38</v>
-      </c>
-      <c r="AI24">
-        <v>12.66</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>2.28</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>26.08</v>
-      </c>
-      <c r="AN24">
         <v>0.76</v>
       </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>18.99</v>
-      </c>
-      <c r="AS24">
-        <v>52.86</v>
-      </c>
-      <c r="AT24">
-        <v>2.08</v>
-      </c>
-      <c r="AU24">
-        <v>25.32</v>
-      </c>
-      <c r="AV24">
-        <v>0.76</v>
-      </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>55307</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202108</v>
@@ -4066,10 +2866,10 @@
         <v>6119026626</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>4889036000</v>
@@ -4078,7 +2878,7 @@
         <v>27.27272727272727</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>14382410</v>
@@ -4090,7 +2890,7 @@
         <v>573920</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4099,108 +2899,60 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>94.37</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>5.23</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X25">
-        <v>0.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Y25">
-        <v>5.51</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>94.19</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
         <v>0.4</v>
       </c>
-      <c r="AN25">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0.28</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>99.31999999999999</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>56336</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202109</v>
@@ -4212,10 +2964,10 @@
         <v>6119010629</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>4889036000</v>
@@ -4224,7 +2976,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L26">
         <v>535179</v>
@@ -4236,117 +2988,69 @@
         <v>5572</v>
       </c>
       <c r="O26">
-        <v>82.65000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="P26">
-        <v>17.35</v>
+        <v>0</v>
       </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>11.47</v>
+      </c>
+      <c r="S26">
+        <v>29.91</v>
+      </c>
+      <c r="T26">
         <v>6.68</v>
       </c>
-      <c r="R26">
-        <v>15.45</v>
-      </c>
-      <c r="S26">
-        <v>4.99</v>
-      </c>
-      <c r="T26">
-        <v>4.99</v>
-      </c>
       <c r="U26">
-        <v>44.87</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>12.36</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="W26">
-        <v>10.67</v>
+        <v>4.89</v>
       </c>
       <c r="X26">
-        <v>57.53</v>
+        <v>36.59</v>
       </c>
       <c r="Y26">
-        <v>22.13</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>20.34</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>22.93</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>60.72</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>16.35</v>
       </c>
       <c r="AE26">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>11.47</v>
-      </c>
-      <c r="AI26">
-        <v>29.91</v>
-      </c>
-      <c r="AJ26">
-        <v>6.68</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AM26">
-        <v>4.89</v>
-      </c>
-      <c r="AN26">
-        <v>36.59</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>22.93</v>
-      </c>
-      <c r="AS26">
-        <v>60.72</v>
-      </c>
-      <c r="AT26">
-        <v>16.35</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>58124</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202109</v>
@@ -4358,10 +3062,10 @@
         <v>6119026626</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>4889036000</v>
@@ -4370,7 +3074,7 @@
         <v>27.27272727272727</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L27">
         <v>75286</v>
@@ -4382,7 +3086,7 @@
         <v>7100</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -4400,99 +3104,51 @@
         <v>0</v>
       </c>
       <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>69.01000000000001</v>
+      </c>
+      <c r="X27">
         <v>30.99</v>
       </c>
-      <c r="V27">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>30.99</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>69.01000000000001</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>100</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>69.01000000000001</v>
-      </c>
-      <c r="AN27">
-        <v>30.99</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>30.99</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>69.01000000000001</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>59163</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202110</v>
@@ -4504,10 +3160,10 @@
         <v>6119010629</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I28">
         <v>4889036000</v>
@@ -4516,7 +3172,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L28">
         <v>1046880</v>
@@ -4528,52 +3184,52 @@
         <v>10695</v>
       </c>
       <c r="O28">
-        <v>96.95</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>7.38</v>
+        <v>34.06</v>
       </c>
       <c r="S28">
+        <v>40.65</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>4.28</v>
+      </c>
+      <c r="V28">
         <v>2.02</v>
       </c>
-      <c r="T28">
-        <v>63.53</v>
-      </c>
-      <c r="U28">
-        <v>10.14</v>
-      </c>
-      <c r="V28">
-        <v>13.88</v>
-      </c>
       <c r="W28">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>20.96</v>
+        <v>19</v>
       </c>
       <c r="Y28">
-        <v>46.06</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>32.97</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>50.25</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>37.45</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -4581,64 +3237,16 @@
       <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>34.06</v>
-      </c>
-      <c r="AI28">
-        <v>40.65</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>4.28</v>
-      </c>
-      <c r="AL28">
-        <v>2.02</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>19</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>12.3</v>
-      </c>
-      <c r="AS28">
-        <v>50.25</v>
-      </c>
-      <c r="AT28">
-        <v>37.45</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>62001</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202111</v>
@@ -4650,10 +3258,10 @@
         <v>6119010629</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I29">
         <v>4889036000</v>
@@ -4662,7 +3270,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L29">
         <v>142890</v>
@@ -4674,40 +3282,40 @@
         <v>3843</v>
       </c>
       <c r="O29">
-        <v>81.78</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>18.22</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>36.8</v>
       </c>
       <c r="S29">
-        <v>18.59</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>18.22</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
-        <v>44.98</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>18.22</v>
+        <v>0</v>
       </c>
       <c r="X29">
         <v>63.2</v>
       </c>
       <c r="Y29">
-        <v>13.01</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>23.79</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -4716,75 +3324,27 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>50.56</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>31.23</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>36.8</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>63.2</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>50.56</v>
-      </c>
-      <c r="AT29">
-        <v>31.23</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
         <v>18.22</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>64829</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202112</v>
@@ -4796,10 +3356,10 @@
         <v>6119010629</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I30">
         <v>4889036000</v>
@@ -4808,7 +3368,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L30">
         <v>1309771</v>
@@ -4820,117 +3380,69 @@
         <v>19377</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>21.79</v>
       </c>
       <c r="R30">
-        <v>13.82</v>
+        <v>33.9</v>
       </c>
       <c r="S30">
-        <v>52.12</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>4.88</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>27.19</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>1.98</v>
+        <v>21.99</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>9.49</v>
       </c>
       <c r="X30">
-        <v>6.19</v>
+        <v>10.88</v>
       </c>
       <c r="Y30">
-        <v>40.06</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>53.75</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>86.22</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>9.49</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF30">
-        <v>1.95</v>
-      </c>
-      <c r="AG30">
-        <v>21.79</v>
-      </c>
-      <c r="AH30">
-        <v>33.9</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>21.99</v>
-      </c>
-      <c r="AM30">
-        <v>9.49</v>
-      </c>
-      <c r="AN30">
-        <v>10.88</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>2.34</v>
-      </c>
-      <c r="AS30">
-        <v>86.22</v>
-      </c>
-      <c r="AT30">
-        <v>9.49</v>
-      </c>
-      <c r="AU30">
-        <v>1.95</v>
-      </c>
-      <c r="AV30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>67662</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202201</v>
@@ -4942,10 +3454,10 @@
         <v>6119010629</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I31">
         <v>4889036000</v>
@@ -4954,7 +3466,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L31">
         <v>941768</v>
@@ -4966,117 +3478,69 @@
         <v>22775</v>
       </c>
       <c r="O31">
-        <v>43.03</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>56.97</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
+        <v>2.31</v>
+      </c>
+      <c r="S31">
+        <v>33.15</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>28.49</v>
-      </c>
-      <c r="S31">
-        <v>5.38</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>35.35</v>
       </c>
       <c r="V31">
         <v>2.31</v>
       </c>
       <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>33.75</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>61.64</v>
+      </c>
+      <c r="AC31">
+        <v>7.57</v>
+      </c>
+      <c r="AD31">
+        <v>2.31</v>
+      </c>
+      <c r="AE31">
         <v>28.49</v>
       </c>
-      <c r="X31">
-        <v>0.88</v>
-      </c>
-      <c r="Y31">
-        <v>87.93000000000001</v>
-      </c>
-      <c r="Z31">
-        <v>11.2</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
       <c r="AF31">
         <v>0</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>2.31</v>
-      </c>
-      <c r="AI31">
-        <v>33.15</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>28.49</v>
-      </c>
-      <c r="AL31">
-        <v>2.31</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>33.75</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>61.64</v>
-      </c>
-      <c r="AS31">
-        <v>7.57</v>
-      </c>
-      <c r="AT31">
-        <v>2.31</v>
-      </c>
-      <c r="AU31">
-        <v>28.49</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>70493</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202202</v>
@@ -5088,10 +3552,10 @@
         <v>6119010629</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>4889036000</v>
@@ -5100,7 +3564,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L32">
         <v>579455</v>
@@ -5112,37 +3576,37 @@
         <v>13838</v>
       </c>
       <c r="O32">
-        <v>96.03</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>3.97</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="S32">
-        <v>3.97</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="T32">
-        <v>39.3</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
-        <v>52.76</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>3.97</v>
+        <v>7.77</v>
       </c>
       <c r="X32">
-        <v>62.06</v>
+        <v>8.94</v>
       </c>
       <c r="Y32">
-        <v>37.94</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -5151,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>49.14</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>43.09</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>7.77</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -5165,64 +3629,16 @@
       <c r="AF32">
         <v>0</v>
       </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>3.79</v>
-      </c>
-      <c r="AI32">
-        <v>79.48999999999999</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>7.77</v>
-      </c>
-      <c r="AN32">
-        <v>8.94</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>49.14</v>
-      </c>
-      <c r="AS32">
-        <v>43.09</v>
-      </c>
-      <c r="AT32">
-        <v>7.77</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>72276</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202202</v>
@@ -5234,10 +3650,10 @@
         <v>6119026626</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>4889036000</v>
@@ -5246,7 +3662,7 @@
         <v>27.27272727272727</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L33">
         <v>148636</v>
@@ -5258,40 +3674,40 @@
         <v>14400</v>
       </c>
       <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
         <v>100</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>30.9</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>30.9</v>
-      </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>69.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -5303,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -5311,64 +3727,16 @@
       <c r="AF33">
         <v>0</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>100</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>0</v>
-      </c>
-      <c r="AS33">
-        <v>0</v>
-      </c>
-      <c r="AT33">
-        <v>100</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>73337</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>202203</v>
@@ -5380,10 +3748,10 @@
         <v>6119010629</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>4889036000</v>
@@ -5392,7 +3760,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L34">
         <v>1088721</v>
@@ -5404,40 +3772,40 @@
         <v>11424</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>29.23</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>21.95</v>
       </c>
       <c r="R34">
-        <v>23.34</v>
+        <v>4.81</v>
       </c>
       <c r="S34">
-        <v>12.69</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>24.38</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>34.77</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>4.81</v>
+        <v>17.02</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>14.59</v>
       </c>
       <c r="X34">
-        <v>12.94</v>
+        <v>10.46</v>
       </c>
       <c r="Y34">
-        <v>49.96</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>37.1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -5446,75 +3814,27 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>34.38</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>38.81</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>22.44</v>
       </c>
       <c r="AF34">
-        <v>29.23</v>
-      </c>
-      <c r="AG34">
-        <v>21.95</v>
-      </c>
-      <c r="AH34">
-        <v>4.81</v>
-      </c>
-      <c r="AI34">
-        <v>1.95</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>17.02</v>
-      </c>
-      <c r="AM34">
-        <v>14.59</v>
-      </c>
-      <c r="AN34">
-        <v>10.46</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
-      </c>
-      <c r="AS34">
-        <v>34.38</v>
-      </c>
-      <c r="AT34">
-        <v>38.81</v>
-      </c>
-      <c r="AU34">
-        <v>22.44</v>
-      </c>
-      <c r="AV34">
         <v>4.38</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>76182</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>202204</v>
@@ -5526,10 +3846,10 @@
         <v>6119010629</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I35">
         <v>4889036000</v>
@@ -5538,7 +3858,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L35">
         <v>823599</v>
@@ -5550,117 +3870,69 @@
         <v>17744</v>
       </c>
       <c r="O35">
-        <v>88.92</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>11.08</v>
+        <v>7.76</v>
       </c>
       <c r="Q35">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>77.65000000000001</v>
+        <v>2.63</v>
       </c>
       <c r="S35">
-        <v>5.51</v>
+        <v>51.22</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>2.88</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>35.5</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>84.47</v>
+      </c>
+      <c r="AC35">
+        <v>6.89</v>
+      </c>
+      <c r="AD35">
         <v>3.13</v>
       </c>
-      <c r="V35">
+      <c r="AE35">
         <v>2.63</v>
       </c>
-      <c r="W35">
-        <v>7.76</v>
-      </c>
-      <c r="X35">
-        <v>45.71</v>
-      </c>
-      <c r="Y35">
-        <v>51.41</v>
-      </c>
-      <c r="Z35">
+      <c r="AF35">
         <v>2.88</v>
       </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>7.76</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>2.63</v>
-      </c>
-      <c r="AI35">
-        <v>51.22</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>2.88</v>
-      </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>35.5</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>84.47</v>
-      </c>
-      <c r="AS35">
-        <v>6.89</v>
-      </c>
-      <c r="AT35">
-        <v>3.13</v>
-      </c>
-      <c r="AU35">
-        <v>2.63</v>
-      </c>
-      <c r="AV35">
-        <v>2.88</v>
-      </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>79039</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202205</v>
@@ -5672,10 +3944,10 @@
         <v>6119010629</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I36">
         <v>4889036000</v>
@@ -5684,7 +3956,7 @@
         <v>33.3939393939394</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L36">
         <v>417303</v>
@@ -5696,40 +3968,40 @@
         <v>10125</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="R36">
-        <v>18.52</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>68.27</v>
       </c>
       <c r="T36">
-        <v>11.36</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>63.83</v>
+        <v>15.93</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>4.44</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>74.44</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>21.11</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -5738,63 +4010,15 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>79.63</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>10.74</v>
       </c>
       <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>6.17</v>
-      </c>
-      <c r="AH36">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AI36">
-        <v>68.27</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>15.93</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>79.63</v>
-      </c>
-      <c r="AT36">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AU36">
-        <v>10.74</v>
-      </c>
-      <c r="AV36">
         <v>0</v>
       </c>
     </row>
